--- a/03 PE/002 PE头关键字段 PE头解释器.xlsx
+++ b/03 PE/002 PE头关键字段 PE头解释器.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8157D573-A9F2-407E-97CD-0D2DCE9E2A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F3E46C-031E-4B51-BEAC-E086A29048B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="447">
   <si>
     <t>1、PE头关键字段说明</t>
   </si>
@@ -1362,6 +1362,18 @@
   </si>
   <si>
     <t>return 0;</t>
+  </si>
+  <si>
+    <t>注意:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ①</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ②</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1474,7 +1486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,6 +1521,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2070,10 +2088,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B5:M9"/>
+  <dimension ref="B5:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2120,15 +2138,56 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" location="'01'!A1" display="1、PE头关键字段说明" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B7" location="'02'!A1" display="2、通过程序，输出所有的PE头信息." xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G7:M9" location="PEanalysis.cpp!A1" display="1、编写程序读取一个.exe文件，输出所有的PE头信息." xr:uid="{E69EC5E6-AF7C-426E-BBC3-E47959A5BAD4}"/>
+    <hyperlink ref="G12:J13" location="stdafx.h!C15" display="    ①" xr:uid="{263D37CA-7418-4409-94E8-B923A17ECBA2}"/>
+    <hyperlink ref="G15:L15" location="petool2.h!I180" display="    ②" xr:uid="{6815A75D-D24A-4F44-9627-0C8C53BC1D35}"/>
+    <hyperlink ref="G15" location="petool2.h!I181" display="    ②" xr:uid="{3D2927C5-29E8-41BB-8674-7F122864F86E}"/>
+    <hyperlink ref="H15" location="petool2.h!I181" display="// 数据宽度超过8字节使用%I64d、%I64x(vc++6.0),%llx;" xr:uid="{1C10D4D9-AD7B-4F14-9C2C-BD6DF2D9770D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3205,7 +3264,9 @@
   </sheetPr>
   <dimension ref="C6:L78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4224,7 +4285,7 @@
   </sheetPr>
   <dimension ref="C5:R154"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A121" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:R154"/>
     </sheetView>
   </sheetViews>
@@ -7189,3970 +7250,3972 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C6:O240"/>
+  <dimension ref="C6:Q240"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:O240"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9" t="s">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9" t="s">
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
     </row>
     <row r="59" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9" t="s">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9" t="s">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
     </row>
     <row r="63" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9" t="s">
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
     </row>
     <row r="64" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C65" s="9"/>
-      <c r="D65" s="9" t="s">
+      <c r="C65" s="12"/>
+      <c r="D65" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
     </row>
     <row r="66" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
     </row>
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C67" s="9"/>
-      <c r="D67" s="9" t="s">
+      <c r="C67" s="12"/>
+      <c r="D67" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
     </row>
     <row r="69" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
     </row>
     <row r="70" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
     </row>
     <row r="71" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
     </row>
     <row r="72" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
     </row>
     <row r="73" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
     </row>
     <row r="74" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
     </row>
     <row r="75" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9" t="s">
+      <c r="C75" s="12"/>
+      <c r="D75" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
     </row>
     <row r="76" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="D76" s="9" t="s">
+      <c r="C76" s="12"/>
+      <c r="D76" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
     </row>
     <row r="77" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
     </row>
     <row r="78" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9" t="s">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
     </row>
     <row r="79" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9" t="s">
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
     </row>
     <row r="80" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
     </row>
     <row r="81" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9" t="s">
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
     </row>
     <row r="82" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9" t="s">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
     </row>
     <row r="83" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9" t="s">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
     </row>
     <row r="84" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
     </row>
     <row r="85" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="D85" s="9" t="s">
+      <c r="C85" s="12"/>
+      <c r="D85" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
     </row>
     <row r="86" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
     </row>
     <row r="87" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="D87" s="9" t="s">
+      <c r="C87" s="12"/>
+      <c r="D87" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
     </row>
     <row r="88" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
     </row>
     <row r="89" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
     </row>
     <row r="90" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
     </row>
     <row r="91" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
     </row>
     <row r="92" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
     </row>
     <row r="93" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
     </row>
     <row r="94" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C94" s="9"/>
-      <c r="D94" s="9" t="s">
+      <c r="C94" s="12"/>
+      <c r="D94" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
     </row>
     <row r="95" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C95" s="9"/>
-      <c r="D95" s="9" t="s">
+      <c r="C95" s="12"/>
+      <c r="D95" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
     </row>
     <row r="96" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
     </row>
     <row r="97" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9" t="s">
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
     </row>
     <row r="98" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9" t="s">
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
     </row>
     <row r="99" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9" t="s">
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
     </row>
     <row r="100" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9" t="s">
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
     </row>
     <row r="101" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9" t="s">
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="9"/>
-      <c r="O101" s="9"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
     </row>
     <row r="102" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9" t="s">
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="9"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
     </row>
     <row r="103" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9" t="s">
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="9"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
     </row>
     <row r="104" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9" t="s">
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
     </row>
     <row r="105" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9" t="s">
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
     </row>
     <row r="106" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9" t="s">
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
     </row>
     <row r="107" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9" t="s">
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="9"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
     </row>
     <row r="108" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9" t="s">
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="9"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
     </row>
     <row r="109" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9" t="s">
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="9"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
     </row>
     <row r="110" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9" t="s">
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="9"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
     </row>
     <row r="111" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9" t="s">
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
     </row>
     <row r="112" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9" t="s">
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="9"/>
-      <c r="O112" s="9"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
     </row>
     <row r="113" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9" t="s">
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
     </row>
     <row r="114" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9" t="s">
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
     </row>
     <row r="115" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9" t="s">
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="9"/>
-      <c r="O115" s="9"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
     </row>
     <row r="116" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9" t="s">
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="9"/>
-      <c r="O116" s="9"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
     </row>
     <row r="117" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9" t="s">
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="9"/>
-      <c r="N117" s="9"/>
-      <c r="O117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
     </row>
     <row r="118" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9" t="s">
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="9"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
     </row>
     <row r="119" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9" t="s">
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="9"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
     </row>
     <row r="120" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9" t="s">
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
     </row>
     <row r="121" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9" t="s">
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
     </row>
     <row r="122" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9" t="s">
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
     </row>
     <row r="123" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9" t="s">
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
     </row>
     <row r="124" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9" t="s">
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
     </row>
     <row r="125" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9" t="s">
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
     </row>
     <row r="126" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9" t="s">
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
     </row>
     <row r="127" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9" t="s">
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
     </row>
     <row r="128" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9" t="s">
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="9"/>
-      <c r="N128" s="9"/>
-      <c r="O128" s="9"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
     </row>
     <row r="129" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9" t="s">
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="9"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
     </row>
     <row r="130" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9" t="s">
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="12"/>
     </row>
     <row r="131" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9" t="s">
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
     </row>
     <row r="132" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9" t="s">
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
     </row>
     <row r="133" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9" t="s">
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
     </row>
     <row r="134" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9" t="s">
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="9"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
     </row>
     <row r="135" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9" t="s">
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="9"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
     </row>
     <row r="136" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9" t="s">
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
     </row>
     <row r="137" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9" t="s">
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
-      <c r="M137" s="9"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="9"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
     </row>
     <row r="138" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9" t="s">
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="9"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
     </row>
     <row r="139" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9" t="s">
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-      <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
     </row>
     <row r="140" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9" t="s">
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="9"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
     </row>
     <row r="141" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9" t="s">
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="9"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
     </row>
     <row r="142" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9" t="s">
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
     </row>
     <row r="143" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9" t="s">
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
     </row>
     <row r="144" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9" t="s">
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
     </row>
     <row r="145" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9" t="s">
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
     </row>
     <row r="146" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9" t="s">
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
     </row>
     <row r="147" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9" t="s">
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
-      <c r="N147" s="9"/>
-      <c r="O147" s="9"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
     </row>
     <row r="148" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9" t="s">
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
     </row>
     <row r="149" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9" t="s">
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
-      <c r="N149" s="9"/>
-      <c r="O149" s="9"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
     </row>
     <row r="150" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9" t="s">
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
-      <c r="N150" s="9"/>
-      <c r="O150" s="9"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
     </row>
     <row r="151" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9" t="s">
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
-      <c r="N151" s="9"/>
-      <c r="O151" s="9"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
     </row>
     <row r="152" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9" t="s">
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
-      <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
-      <c r="N152" s="9"/>
-      <c r="O152" s="9"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
     </row>
     <row r="153" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9" t="s">
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
-      <c r="L153" s="9"/>
-      <c r="M153" s="9"/>
-      <c r="N153" s="9"/>
-      <c r="O153" s="9"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
     </row>
     <row r="154" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9" t="s">
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
-      <c r="L154" s="9"/>
-      <c r="M154" s="9"/>
-      <c r="N154" s="9"/>
-      <c r="O154" s="9"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
     </row>
     <row r="155" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9" t="s">
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
-      <c r="M155" s="9"/>
-      <c r="N155" s="9"/>
-      <c r="O155" s="9"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
     </row>
     <row r="156" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9" t="s">
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
-      <c r="L156" s="9"/>
-      <c r="M156" s="9"/>
-      <c r="N156" s="9"/>
-      <c r="O156" s="9"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
     </row>
     <row r="157" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9" t="s">
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="9"/>
-      <c r="L157" s="9"/>
-      <c r="M157" s="9"/>
-      <c r="N157" s="9"/>
-      <c r="O157" s="9"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+      <c r="O157" s="12"/>
     </row>
     <row r="158" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9" t="s">
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="H158" s="9"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
-      <c r="L158" s="9"/>
-      <c r="M158" s="9"/>
-      <c r="N158" s="9"/>
-      <c r="O158" s="9"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+      <c r="O158" s="12"/>
     </row>
     <row r="159" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9" t="s">
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
-      <c r="M159" s="9"/>
-      <c r="N159" s="9"/>
-      <c r="O159" s="9"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+      <c r="O159" s="12"/>
     </row>
     <row r="160" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C160" s="9"/>
-      <c r="D160" s="9" t="s">
+      <c r="C160" s="12"/>
+      <c r="D160" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
-      <c r="M160" s="9"/>
-      <c r="N160" s="9"/>
-      <c r="O160" s="9"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
     </row>
     <row r="161" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9" t="s">
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-      <c r="M161" s="9"/>
-      <c r="N161" s="9"/>
-      <c r="O161" s="9"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="12"/>
     </row>
     <row r="162" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C162" s="9"/>
-      <c r="D162" s="9" t="s">
+      <c r="C162" s="12"/>
+      <c r="D162" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
-      <c r="L162" s="9"/>
-      <c r="M162" s="9"/>
-      <c r="N162" s="9"/>
-      <c r="O162" s="9"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
     </row>
     <row r="163" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
-      <c r="M163" s="9"/>
-      <c r="N163" s="9"/>
-      <c r="O163" s="9"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
     </row>
     <row r="164" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
-      <c r="M164" s="9"/>
-      <c r="N164" s="9"/>
-      <c r="O164" s="9"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
     </row>
     <row r="165" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9"/>
-      <c r="L165" s="9"/>
-      <c r="M165" s="9"/>
-      <c r="N165" s="9"/>
-      <c r="O165" s="9"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
     </row>
     <row r="166" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9"/>
-      <c r="L166" s="9"/>
-      <c r="M166" s="9"/>
-      <c r="N166" s="9"/>
-      <c r="O166" s="9"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
     </row>
     <row r="167" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
-      <c r="M167" s="9"/>
-      <c r="N167" s="9"/>
-      <c r="O167" s="9"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
     </row>
     <row r="168" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
-      <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
-      <c r="M168" s="9"/>
-      <c r="N168" s="9"/>
-      <c r="O168" s="9"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
     </row>
     <row r="169" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
-      <c r="K169" s="9"/>
-      <c r="L169" s="9"/>
-      <c r="M169" s="9"/>
-      <c r="N169" s="9"/>
-      <c r="O169" s="9"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
     </row>
     <row r="170" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C170" s="9"/>
-      <c r="D170" s="9" t="s">
+      <c r="C170" s="12"/>
+      <c r="D170" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
-      <c r="L170" s="9"/>
-      <c r="M170" s="9"/>
-      <c r="N170" s="9"/>
-      <c r="O170" s="9"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
     </row>
     <row r="171" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C171" s="9"/>
-      <c r="D171" s="9" t="s">
+      <c r="C171" s="12"/>
+      <c r="D171" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="9"/>
-      <c r="L171" s="9"/>
-      <c r="M171" s="9"/>
-      <c r="N171" s="9"/>
-      <c r="O171" s="9"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
     </row>
     <row r="172" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9" t="s">
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
-      <c r="I172" s="9"/>
-      <c r="J172" s="9"/>
-      <c r="K172" s="9"/>
-      <c r="L172" s="9"/>
-      <c r="M172" s="9"/>
-      <c r="N172" s="9"/>
-      <c r="O172" s="9"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
     </row>
     <row r="173" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="9" t="s">
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="J173" s="9"/>
-      <c r="K173" s="9"/>
-      <c r="L173" s="9"/>
-      <c r="M173" s="9"/>
-      <c r="N173" s="9"/>
-      <c r="O173" s="9"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
     </row>
     <row r="174" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="9" t="s">
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="J174" s="9"/>
-      <c r="K174" s="9"/>
-      <c r="L174" s="9"/>
-      <c r="M174" s="9"/>
-      <c r="N174" s="9"/>
-      <c r="O174" s="9"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
     </row>
     <row r="175" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="9" t="s">
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="J175" s="9"/>
-      <c r="K175" s="9"/>
-      <c r="L175" s="9"/>
-      <c r="M175" s="9"/>
-      <c r="N175" s="9"/>
-      <c r="O175" s="9"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
     </row>
     <row r="176" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9" t="s">
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="J176" s="9"/>
-      <c r="K176" s="9"/>
-      <c r="L176" s="9"/>
-      <c r="M176" s="9"/>
-      <c r="N176" s="9"/>
-      <c r="O176" s="9"/>
-    </row>
-    <row r="177" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9" t="s">
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+    </row>
+    <row r="177" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="J177" s="9"/>
-      <c r="K177" s="9"/>
-      <c r="L177" s="9"/>
-      <c r="M177" s="9"/>
-      <c r="N177" s="9"/>
-      <c r="O177" s="9"/>
-    </row>
-    <row r="178" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9" t="s">
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+    </row>
+    <row r="178" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="J178" s="9"/>
-      <c r="K178" s="9"/>
-      <c r="L178" s="9"/>
-      <c r="M178" s="9"/>
-      <c r="N178" s="9"/>
-      <c r="O178" s="9"/>
-    </row>
-    <row r="179" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="9" t="s">
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+    </row>
+    <row r="179" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="J179" s="9"/>
-      <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="9"/>
-      <c r="N179" s="9"/>
-      <c r="O179" s="9"/>
-    </row>
-    <row r="180" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="9" t="s">
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+    </row>
+    <row r="180" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="J180" s="9"/>
-      <c r="K180" s="9"/>
-      <c r="L180" s="9"/>
-      <c r="M180" s="9"/>
-      <c r="N180" s="9"/>
-      <c r="O180" s="9"/>
-    </row>
-    <row r="181" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9"/>
-      <c r="I181" s="9" t="s">
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+    </row>
+    <row r="181" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J181" s="9" t="s">
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
+      <c r="L181" s="13"/>
+      <c r="M181" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="K181" s="9"/>
-      <c r="L181" s="9"/>
-      <c r="M181" s="9"/>
-      <c r="N181" s="9"/>
-      <c r="O181" s="9"/>
-    </row>
-    <row r="182" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="9" t="s">
+      <c r="N181" s="13"/>
+      <c r="O181" s="13"/>
+      <c r="P181" s="8"/>
+      <c r="Q181" s="8"/>
+    </row>
+    <row r="182" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="J182" s="9"/>
-      <c r="K182" s="9"/>
-      <c r="L182" s="9"/>
-      <c r="M182" s="9"/>
-      <c r="N182" s="9"/>
-      <c r="O182" s="9"/>
-    </row>
-    <row r="183" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="9" t="s">
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="12"/>
+    </row>
+    <row r="183" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="J183" s="9"/>
-      <c r="K183" s="9"/>
-      <c r="L183" s="9"/>
-      <c r="M183" s="9"/>
-      <c r="N183" s="9"/>
-      <c r="O183" s="9"/>
-    </row>
-    <row r="184" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="9" t="s">
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="12"/>
+    </row>
+    <row r="184" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="J184" s="9"/>
-      <c r="K184" s="9"/>
-      <c r="L184" s="9"/>
-      <c r="M184" s="9"/>
-      <c r="N184" s="9"/>
-      <c r="O184" s="9"/>
-    </row>
-    <row r="185" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9"/>
-      <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="9"/>
-      <c r="I185" s="9" t="s">
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="12"/>
+    </row>
+    <row r="185" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="J185" s="9"/>
-      <c r="K185" s="9"/>
-      <c r="L185" s="9"/>
-      <c r="M185" s="9"/>
-      <c r="N185" s="9"/>
-      <c r="O185" s="9"/>
-    </row>
-    <row r="186" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
-      <c r="F186" s="9"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="9"/>
-      <c r="I186" s="9" t="s">
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="12"/>
+    </row>
+    <row r="186" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="J186" s="9"/>
-      <c r="K186" s="9"/>
-      <c r="L186" s="9"/>
-      <c r="M186" s="9"/>
-      <c r="N186" s="9"/>
-      <c r="O186" s="9"/>
-    </row>
-    <row r="187" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9"/>
-      <c r="G187" s="9"/>
-      <c r="H187" s="9"/>
-      <c r="I187" s="9" t="s">
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
+    </row>
+    <row r="187" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="J187" s="9"/>
-      <c r="K187" s="9"/>
-      <c r="L187" s="9"/>
-      <c r="M187" s="9"/>
-      <c r="N187" s="9"/>
-      <c r="O187" s="9"/>
-    </row>
-    <row r="188" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-      <c r="F188" s="9"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="9"/>
-      <c r="I188" s="9" t="s">
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
+    </row>
+    <row r="188" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="J188" s="9"/>
-      <c r="K188" s="9"/>
-      <c r="L188" s="9"/>
-      <c r="M188" s="9"/>
-      <c r="N188" s="9"/>
-      <c r="O188" s="9"/>
-    </row>
-    <row r="189" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
-      <c r="F189" s="9"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="9"/>
-      <c r="I189" s="9" t="s">
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="12"/>
+    </row>
+    <row r="189" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="J189" s="9"/>
-      <c r="K189" s="9"/>
-      <c r="L189" s="9"/>
-      <c r="M189" s="9"/>
-      <c r="N189" s="9"/>
-      <c r="O189" s="9"/>
-    </row>
-    <row r="190" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
-      <c r="F190" s="9"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="9"/>
-      <c r="I190" s="9" t="s">
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="12"/>
+    </row>
+    <row r="190" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="J190" s="9"/>
-      <c r="K190" s="9"/>
-      <c r="L190" s="9"/>
-      <c r="M190" s="9"/>
-      <c r="N190" s="9"/>
-      <c r="O190" s="9"/>
-    </row>
-    <row r="191" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
-      <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
-      <c r="I191" s="9" t="s">
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+    </row>
+    <row r="191" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="J191" s="9"/>
-      <c r="K191" s="9"/>
-      <c r="L191" s="9"/>
-      <c r="M191" s="9"/>
-      <c r="N191" s="9"/>
-      <c r="O191" s="9"/>
-    </row>
-    <row r="192" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="9"/>
-      <c r="I192" s="9" t="s">
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="12"/>
+    </row>
+    <row r="192" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="J192" s="9"/>
-      <c r="K192" s="9"/>
-      <c r="L192" s="9"/>
-      <c r="M192" s="9"/>
-      <c r="N192" s="9"/>
-      <c r="O192" s="9"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="12"/>
     </row>
     <row r="193" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="9"/>
-      <c r="I193" s="9" t="s">
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="J193" s="9"/>
-      <c r="K193" s="9"/>
-      <c r="L193" s="9"/>
-      <c r="M193" s="9"/>
-      <c r="N193" s="9"/>
-      <c r="O193" s="9"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
+      <c r="O193" s="12"/>
     </row>
     <row r="194" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="9"/>
-      <c r="I194" s="9" t="s">
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="J194" s="9"/>
-      <c r="K194" s="9"/>
-      <c r="L194" s="9"/>
-      <c r="M194" s="9"/>
-      <c r="N194" s="9"/>
-      <c r="O194" s="9"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="12"/>
     </row>
     <row r="195" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
-      <c r="I195" s="9" t="s">
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="J195" s="9"/>
-      <c r="K195" s="9"/>
-      <c r="L195" s="9"/>
-      <c r="M195" s="9"/>
-      <c r="N195" s="9"/>
-      <c r="O195" s="9"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
     </row>
     <row r="196" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="9"/>
-      <c r="I196" s="9" t="s">
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="J196" s="9"/>
-      <c r="K196" s="9"/>
-      <c r="L196" s="9"/>
-      <c r="M196" s="9"/>
-      <c r="N196" s="9"/>
-      <c r="O196" s="9"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
     </row>
     <row r="197" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="9" t="s">
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="J197" s="9"/>
-      <c r="K197" s="9"/>
-      <c r="L197" s="9"/>
-      <c r="M197" s="9"/>
-      <c r="N197" s="9"/>
-      <c r="O197" s="9"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
     </row>
     <row r="198" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
-      <c r="I198" s="9" t="s">
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="J198" s="9"/>
-      <c r="K198" s="9"/>
-      <c r="L198" s="9"/>
-      <c r="M198" s="9"/>
-      <c r="N198" s="9"/>
-      <c r="O198" s="9"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
     </row>
     <row r="199" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
-      <c r="H199" s="9"/>
-      <c r="I199" s="9" t="s">
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="J199" s="9"/>
-      <c r="K199" s="9"/>
-      <c r="L199" s="9"/>
-      <c r="M199" s="9"/>
-      <c r="N199" s="9"/>
-      <c r="O199" s="9"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="12"/>
     </row>
     <row r="200" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="9"/>
-      <c r="I200" s="9" t="s">
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="J200" s="9"/>
-      <c r="K200" s="9"/>
-      <c r="L200" s="9"/>
-      <c r="M200" s="9"/>
-      <c r="N200" s="9"/>
-      <c r="O200" s="9"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
     </row>
     <row r="201" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
-      <c r="F201" s="9"/>
-      <c r="G201" s="9"/>
-      <c r="H201" s="9"/>
-      <c r="I201" s="9" t="s">
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="J201" s="9"/>
-      <c r="K201" s="9"/>
-      <c r="L201" s="9"/>
-      <c r="M201" s="9"/>
-      <c r="N201" s="9"/>
-      <c r="O201" s="9"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
+      <c r="O201" s="12"/>
     </row>
     <row r="202" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="9"/>
-      <c r="F202" s="9"/>
-      <c r="G202" s="9"/>
-      <c r="H202" s="9"/>
-      <c r="I202" s="9" t="s">
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="J202" s="9"/>
-      <c r="K202" s="9"/>
-      <c r="L202" s="9"/>
-      <c r="M202" s="9"/>
-      <c r="N202" s="9"/>
-      <c r="O202" s="9"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
     </row>
     <row r="203" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
-      <c r="E203" s="9" t="s">
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F203" s="9"/>
-      <c r="G203" s="9"/>
-      <c r="H203" s="9"/>
-      <c r="I203" s="9"/>
-      <c r="J203" s="9"/>
-      <c r="K203" s="9"/>
-      <c r="L203" s="9"/>
-      <c r="M203" s="9"/>
-      <c r="N203" s="9"/>
-      <c r="O203" s="9"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
     </row>
     <row r="204" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="9"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="9" t="s">
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="H204" s="9"/>
-      <c r="I204" s="9"/>
-      <c r="J204" s="9"/>
-      <c r="K204" s="9"/>
-      <c r="L204" s="9"/>
-      <c r="M204" s="9"/>
-      <c r="N204" s="9"/>
-      <c r="O204" s="9"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="12"/>
+      <c r="N204" s="12"/>
+      <c r="O204" s="12"/>
     </row>
     <row r="205" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="9"/>
-      <c r="F205" s="9"/>
-      <c r="G205" s="9" t="s">
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="H205" s="9"/>
-      <c r="I205" s="9"/>
-      <c r="J205" s="9"/>
-      <c r="K205" s="9"/>
-      <c r="L205" s="9"/>
-      <c r="M205" s="9"/>
-      <c r="N205" s="9"/>
-      <c r="O205" s="9"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="12"/>
+      <c r="O205" s="12"/>
     </row>
     <row r="206" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="9"/>
-      <c r="F206" s="9"/>
-      <c r="G206" s="9" t="s">
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="H206" s="9"/>
-      <c r="I206" s="9"/>
-      <c r="J206" s="9"/>
-      <c r="K206" s="9"/>
-      <c r="L206" s="9"/>
-      <c r="M206" s="9"/>
-      <c r="N206" s="9"/>
-      <c r="O206" s="9"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="12"/>
+      <c r="N206" s="12"/>
+      <c r="O206" s="12"/>
     </row>
     <row r="207" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
-      <c r="F207" s="9"/>
-      <c r="G207" s="9" t="s">
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="H207" s="9"/>
-      <c r="I207" s="9"/>
-      <c r="J207" s="9"/>
-      <c r="K207" s="9"/>
-      <c r="L207" s="9"/>
-      <c r="M207" s="9"/>
-      <c r="N207" s="9"/>
-      <c r="O207" s="9"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="12"/>
+      <c r="N207" s="12"/>
+      <c r="O207" s="12"/>
     </row>
     <row r="208" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="9" t="s">
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="H208" s="9"/>
-      <c r="I208" s="9"/>
-      <c r="J208" s="9"/>
-      <c r="K208" s="9"/>
-      <c r="L208" s="9"/>
-      <c r="M208" s="9"/>
-      <c r="N208" s="9"/>
-      <c r="O208" s="9"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="12"/>
+      <c r="M208" s="12"/>
+      <c r="N208" s="12"/>
+      <c r="O208" s="12"/>
     </row>
     <row r="209" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="9" t="s">
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="H209" s="9"/>
-      <c r="I209" s="9"/>
-      <c r="J209" s="9"/>
-      <c r="K209" s="9"/>
-      <c r="L209" s="9"/>
-      <c r="M209" s="9"/>
-      <c r="N209" s="9"/>
-      <c r="O209" s="9"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="12"/>
+      <c r="N209" s="12"/>
+      <c r="O209" s="12"/>
     </row>
     <row r="210" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
-      <c r="F210" s="9"/>
-      <c r="G210" s="9" t="s">
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="H210" s="9"/>
-      <c r="I210" s="9"/>
-      <c r="J210" s="9"/>
-      <c r="K210" s="9"/>
-      <c r="L210" s="9"/>
-      <c r="M210" s="9"/>
-      <c r="N210" s="9"/>
-      <c r="O210" s="9"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+      <c r="O210" s="12"/>
     </row>
     <row r="211" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
-      <c r="E211" s="9"/>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9" t="s">
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="H211" s="9"/>
-      <c r="I211" s="9"/>
-      <c r="J211" s="9"/>
-      <c r="K211" s="9"/>
-      <c r="L211" s="9"/>
-      <c r="M211" s="9"/>
-      <c r="N211" s="9"/>
-      <c r="O211" s="9"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="12"/>
+      <c r="K211" s="12"/>
+      <c r="L211" s="12"/>
+      <c r="M211" s="12"/>
+      <c r="N211" s="12"/>
+      <c r="O211" s="12"/>
     </row>
     <row r="212" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-      <c r="E212" s="9"/>
-      <c r="F212" s="9"/>
-      <c r="G212" s="9" t="s">
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="H212" s="9"/>
-      <c r="I212" s="9"/>
-      <c r="J212" s="9"/>
-      <c r="K212" s="9"/>
-      <c r="L212" s="9"/>
-      <c r="M212" s="9"/>
-      <c r="N212" s="9"/>
-      <c r="O212" s="9"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="12"/>
+      <c r="L212" s="12"/>
+      <c r="M212" s="12"/>
+      <c r="N212" s="12"/>
+      <c r="O212" s="12"/>
     </row>
     <row r="213" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9" t="s">
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="H213" s="9"/>
-      <c r="I213" s="9"/>
-      <c r="J213" s="9"/>
-      <c r="K213" s="9"/>
-      <c r="L213" s="9"/>
-      <c r="M213" s="9"/>
-      <c r="N213" s="9"/>
-      <c r="O213" s="9"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="12"/>
+      <c r="M213" s="12"/>
+      <c r="N213" s="12"/>
+      <c r="O213" s="12"/>
     </row>
     <row r="214" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9" t="s">
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="H214" s="9"/>
-      <c r="I214" s="9"/>
-      <c r="J214" s="9"/>
-      <c r="K214" s="9"/>
-      <c r="L214" s="9"/>
-      <c r="M214" s="9"/>
-      <c r="N214" s="9"/>
-      <c r="O214" s="9"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="12"/>
+      <c r="M214" s="12"/>
+      <c r="N214" s="12"/>
+      <c r="O214" s="12"/>
     </row>
     <row r="215" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9" t="s">
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="H215" s="9"/>
-      <c r="I215" s="9"/>
-      <c r="J215" s="9"/>
-      <c r="K215" s="9"/>
-      <c r="L215" s="9"/>
-      <c r="M215" s="9"/>
-      <c r="N215" s="9"/>
-      <c r="O215" s="9"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="12"/>
+      <c r="K215" s="12"/>
+      <c r="L215" s="12"/>
+      <c r="M215" s="12"/>
+      <c r="N215" s="12"/>
+      <c r="O215" s="12"/>
     </row>
     <row r="216" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9" t="s">
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="H216" s="9"/>
-      <c r="I216" s="9"/>
-      <c r="J216" s="9"/>
-      <c r="K216" s="9"/>
-      <c r="L216" s="9"/>
-      <c r="M216" s="9"/>
-      <c r="N216" s="9"/>
-      <c r="O216" s="9"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="12"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="12"/>
+      <c r="M216" s="12"/>
+      <c r="N216" s="12"/>
+      <c r="O216" s="12"/>
     </row>
     <row r="217" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9" t="s">
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
-      <c r="K217" s="9"/>
-      <c r="L217" s="9"/>
-      <c r="M217" s="9"/>
-      <c r="N217" s="9"/>
-      <c r="O217" s="9"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="12"/>
+      <c r="L217" s="12"/>
+      <c r="M217" s="12"/>
+      <c r="N217" s="12"/>
+      <c r="O217" s="12"/>
     </row>
     <row r="218" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9" t="s">
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="H218" s="9"/>
-      <c r="I218" s="9"/>
-      <c r="J218" s="9"/>
-      <c r="K218" s="9"/>
-      <c r="L218" s="9"/>
-      <c r="M218" s="9"/>
-      <c r="N218" s="9"/>
-      <c r="O218" s="9"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="12"/>
+      <c r="M218" s="12"/>
+      <c r="N218" s="12"/>
+      <c r="O218" s="12"/>
     </row>
     <row r="219" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="9" t="s">
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="H219" s="9"/>
-      <c r="I219" s="9"/>
-      <c r="J219" s="9"/>
-      <c r="K219" s="9"/>
-      <c r="L219" s="9"/>
-      <c r="M219" s="9"/>
-      <c r="N219" s="9"/>
-      <c r="O219" s="9"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="12"/>
+      <c r="K219" s="12"/>
+      <c r="L219" s="12"/>
+      <c r="M219" s="12"/>
+      <c r="N219" s="12"/>
+      <c r="O219" s="12"/>
     </row>
     <row r="220" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="9" t="s">
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="H220" s="9"/>
-      <c r="I220" s="9"/>
-      <c r="J220" s="9"/>
-      <c r="K220" s="9"/>
-      <c r="L220" s="9"/>
-      <c r="M220" s="9"/>
-      <c r="N220" s="9"/>
-      <c r="O220" s="9"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="12"/>
+      <c r="K220" s="12"/>
+      <c r="L220" s="12"/>
+      <c r="M220" s="12"/>
+      <c r="N220" s="12"/>
+      <c r="O220" s="12"/>
     </row>
     <row r="221" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9" t="s">
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="H221" s="9"/>
-      <c r="I221" s="9"/>
-      <c r="J221" s="9"/>
-      <c r="K221" s="9"/>
-      <c r="L221" s="9"/>
-      <c r="M221" s="9"/>
-      <c r="N221" s="9"/>
-      <c r="O221" s="9"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="12"/>
+      <c r="M221" s="12"/>
+      <c r="N221" s="12"/>
+      <c r="O221" s="12"/>
     </row>
     <row r="222" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="9" t="s">
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="H222" s="9"/>
-      <c r="I222" s="9"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="9"/>
-      <c r="L222" s="9"/>
-      <c r="M222" s="9"/>
-      <c r="N222" s="9"/>
-      <c r="O222" s="9"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="12"/>
+      <c r="K222" s="12"/>
+      <c r="L222" s="12"/>
+      <c r="M222" s="12"/>
+      <c r="N222" s="12"/>
+      <c r="O222" s="12"/>
     </row>
     <row r="223" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-      <c r="F223" s="9"/>
-      <c r="G223" s="9" t="s">
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="H223" s="9"/>
-      <c r="I223" s="9"/>
-      <c r="J223" s="9"/>
-      <c r="K223" s="9"/>
-      <c r="L223" s="9"/>
-      <c r="M223" s="9"/>
-      <c r="N223" s="9"/>
-      <c r="O223" s="9"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
+      <c r="J223" s="12"/>
+      <c r="K223" s="12"/>
+      <c r="L223" s="12"/>
+      <c r="M223" s="12"/>
+      <c r="N223" s="12"/>
+      <c r="O223" s="12"/>
     </row>
     <row r="224" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C224" s="9"/>
-      <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
-      <c r="G224" s="9" t="s">
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="H224" s="9"/>
-      <c r="I224" s="9"/>
-      <c r="J224" s="9"/>
-      <c r="K224" s="9"/>
-      <c r="L224" s="9"/>
-      <c r="M224" s="9"/>
-      <c r="N224" s="9"/>
-      <c r="O224" s="9"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+      <c r="J224" s="12"/>
+      <c r="K224" s="12"/>
+      <c r="L224" s="12"/>
+      <c r="M224" s="12"/>
+      <c r="N224" s="12"/>
+      <c r="O224" s="12"/>
     </row>
     <row r="225" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
-      <c r="F225" s="9"/>
-      <c r="G225" s="9" t="s">
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="H225" s="9"/>
-      <c r="I225" s="9"/>
-      <c r="J225" s="9"/>
-      <c r="K225" s="9"/>
-      <c r="L225" s="9"/>
-      <c r="M225" s="9"/>
-      <c r="N225" s="9"/>
-      <c r="O225" s="9"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+      <c r="J225" s="12"/>
+      <c r="K225" s="12"/>
+      <c r="L225" s="12"/>
+      <c r="M225" s="12"/>
+      <c r="N225" s="12"/>
+      <c r="O225" s="12"/>
     </row>
     <row r="226" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C226" s="9"/>
-      <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
-      <c r="F226" s="9"/>
-      <c r="G226" s="9" t="s">
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="H226" s="9"/>
-      <c r="I226" s="9"/>
-      <c r="J226" s="9"/>
-      <c r="K226" s="9"/>
-      <c r="L226" s="9"/>
-      <c r="M226" s="9"/>
-      <c r="N226" s="9"/>
-      <c r="O226" s="9"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+      <c r="J226" s="12"/>
+      <c r="K226" s="12"/>
+      <c r="L226" s="12"/>
+      <c r="M226" s="12"/>
+      <c r="N226" s="12"/>
+      <c r="O226" s="12"/>
     </row>
     <row r="227" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
-      <c r="E227" s="9"/>
-      <c r="F227" s="9"/>
-      <c r="G227" s="9" t="s">
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="H227" s="9"/>
-      <c r="I227" s="9"/>
-      <c r="J227" s="9"/>
-      <c r="K227" s="9"/>
-      <c r="L227" s="9"/>
-      <c r="M227" s="9"/>
-      <c r="N227" s="9"/>
-      <c r="O227" s="9"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="12"/>
+      <c r="M227" s="12"/>
+      <c r="N227" s="12"/>
+      <c r="O227" s="12"/>
     </row>
     <row r="228" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C228" s="9"/>
-      <c r="D228" s="9"/>
-      <c r="E228" s="9"/>
-      <c r="F228" s="9"/>
-      <c r="G228" s="9" t="s">
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="H228" s="9"/>
-      <c r="I228" s="9"/>
-      <c r="J228" s="9"/>
-      <c r="K228" s="9"/>
-      <c r="L228" s="9"/>
-      <c r="M228" s="9"/>
-      <c r="N228" s="9"/>
-      <c r="O228" s="9"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+      <c r="J228" s="12"/>
+      <c r="K228" s="12"/>
+      <c r="L228" s="12"/>
+      <c r="M228" s="12"/>
+      <c r="N228" s="12"/>
+      <c r="O228" s="12"/>
     </row>
     <row r="229" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
-      <c r="F229" s="9"/>
-      <c r="G229" s="9" t="s">
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="H229" s="9"/>
-      <c r="I229" s="9"/>
-      <c r="J229" s="9"/>
-      <c r="K229" s="9"/>
-      <c r="L229" s="9"/>
-      <c r="M229" s="9"/>
-      <c r="N229" s="9"/>
-      <c r="O229" s="9"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+      <c r="J229" s="12"/>
+      <c r="K229" s="12"/>
+      <c r="L229" s="12"/>
+      <c r="M229" s="12"/>
+      <c r="N229" s="12"/>
+      <c r="O229" s="12"/>
     </row>
     <row r="230" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
-      <c r="F230" s="9"/>
-      <c r="G230" s="9" t="s">
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="H230" s="9"/>
-      <c r="I230" s="9"/>
-      <c r="J230" s="9"/>
-      <c r="K230" s="9"/>
-      <c r="L230" s="9"/>
-      <c r="M230" s="9"/>
-      <c r="N230" s="9"/>
-      <c r="O230" s="9"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="12"/>
+      <c r="L230" s="12"/>
+      <c r="M230" s="12"/>
+      <c r="N230" s="12"/>
+      <c r="O230" s="12"/>
     </row>
     <row r="231" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
-      <c r="F231" s="9"/>
-      <c r="G231" s="9" t="s">
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="H231" s="9"/>
-      <c r="I231" s="9"/>
-      <c r="J231" s="9"/>
-      <c r="K231" s="9"/>
-      <c r="L231" s="9"/>
-      <c r="M231" s="9"/>
-      <c r="N231" s="9"/>
-      <c r="O231" s="9"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+      <c r="J231" s="12"/>
+      <c r="K231" s="12"/>
+      <c r="L231" s="12"/>
+      <c r="M231" s="12"/>
+      <c r="N231" s="12"/>
+      <c r="O231" s="12"/>
     </row>
     <row r="232" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
-      <c r="F232" s="9"/>
-      <c r="G232" s="9" t="s">
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="H232" s="9"/>
-      <c r="I232" s="9"/>
-      <c r="J232" s="9"/>
-      <c r="K232" s="9"/>
-      <c r="L232" s="9"/>
-      <c r="M232" s="9"/>
-      <c r="N232" s="9"/>
-      <c r="O232" s="9"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+      <c r="J232" s="12"/>
+      <c r="K232" s="12"/>
+      <c r="L232" s="12"/>
+      <c r="M232" s="12"/>
+      <c r="N232" s="12"/>
+      <c r="O232" s="12"/>
     </row>
     <row r="233" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9" t="s">
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="H233" s="9"/>
-      <c r="I233" s="9"/>
-      <c r="J233" s="9"/>
-      <c r="K233" s="9"/>
-      <c r="L233" s="9"/>
-      <c r="M233" s="9"/>
-      <c r="N233" s="9"/>
-      <c r="O233" s="9"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="12"/>
+      <c r="J233" s="12"/>
+      <c r="K233" s="12"/>
+      <c r="L233" s="12"/>
+      <c r="M233" s="12"/>
+      <c r="N233" s="12"/>
+      <c r="O233" s="12"/>
     </row>
     <row r="234" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C234" s="9"/>
-      <c r="D234" s="9" t="s">
+      <c r="C234" s="12"/>
+      <c r="D234" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E234" s="9"/>
-      <c r="F234" s="9"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="9"/>
-      <c r="I234" s="9"/>
-      <c r="J234" s="9"/>
-      <c r="K234" s="9"/>
-      <c r="L234" s="9"/>
-      <c r="M234" s="9"/>
-      <c r="N234" s="9"/>
-      <c r="O234" s="9"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="12"/>
+      <c r="J234" s="12"/>
+      <c r="K234" s="12"/>
+      <c r="L234" s="12"/>
+      <c r="M234" s="12"/>
+      <c r="N234" s="12"/>
+      <c r="O234" s="12"/>
     </row>
     <row r="235" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9" t="s">
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="F235" s="9"/>
-      <c r="G235" s="9"/>
-      <c r="H235" s="9"/>
-      <c r="I235" s="9"/>
-      <c r="J235" s="9"/>
-      <c r="K235" s="9"/>
-      <c r="L235" s="9"/>
-      <c r="M235" s="9"/>
-      <c r="N235" s="9"/>
-      <c r="O235" s="9"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="12"/>
+      <c r="J235" s="12"/>
+      <c r="K235" s="12"/>
+      <c r="L235" s="12"/>
+      <c r="M235" s="12"/>
+      <c r="N235" s="12"/>
+      <c r="O235" s="12"/>
     </row>
     <row r="236" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C236" s="9"/>
-      <c r="D236" s="9" t="s">
+      <c r="C236" s="12"/>
+      <c r="D236" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E236" s="9"/>
-      <c r="F236" s="9"/>
-      <c r="G236" s="9"/>
-      <c r="H236" s="9"/>
-      <c r="I236" s="9"/>
-      <c r="J236" s="9"/>
-      <c r="K236" s="9"/>
-      <c r="L236" s="9"/>
-      <c r="M236" s="9"/>
-      <c r="N236" s="9"/>
-      <c r="O236" s="9"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
+      <c r="J236" s="12"/>
+      <c r="K236" s="12"/>
+      <c r="L236" s="12"/>
+      <c r="M236" s="12"/>
+      <c r="N236" s="12"/>
+      <c r="O236" s="12"/>
     </row>
     <row r="237" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C237" s="9" t="s">
+      <c r="C237" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
-      <c r="H237" s="9"/>
-      <c r="I237" s="9"/>
-      <c r="J237" s="9"/>
-      <c r="K237" s="9"/>
-      <c r="L237" s="9"/>
-      <c r="M237" s="9"/>
-      <c r="N237" s="9"/>
-      <c r="O237" s="9"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="12"/>
+      <c r="J237" s="12"/>
+      <c r="K237" s="12"/>
+      <c r="L237" s="12"/>
+      <c r="M237" s="12"/>
+      <c r="N237" s="12"/>
+      <c r="O237" s="12"/>
     </row>
     <row r="238" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="9"/>
-      <c r="I238" s="9"/>
-      <c r="J238" s="9"/>
-      <c r="K238" s="9"/>
-      <c r="L238" s="9"/>
-      <c r="M238" s="9"/>
-      <c r="N238" s="9"/>
-      <c r="O238" s="9"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="12"/>
+      <c r="J238" s="12"/>
+      <c r="K238" s="12"/>
+      <c r="L238" s="12"/>
+      <c r="M238" s="12"/>
+      <c r="N238" s="12"/>
+      <c r="O238" s="12"/>
     </row>
     <row r="239" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
-      <c r="E239" s="9"/>
-      <c r="F239" s="9"/>
-      <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
-      <c r="I239" s="9"/>
-      <c r="J239" s="9"/>
-      <c r="K239" s="9"/>
-      <c r="L239" s="9"/>
-      <c r="M239" s="9"/>
-      <c r="N239" s="9"/>
-      <c r="O239" s="9"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="12"/>
+      <c r="L239" s="12"/>
+      <c r="M239" s="12"/>
+      <c r="N239" s="12"/>
+      <c r="O239" s="12"/>
     </row>
     <row r="240" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C240" s="9" t="s">
+      <c r="C240" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
-      <c r="F240" s="9"/>
-      <c r="G240" s="9"/>
-      <c r="H240" s="9"/>
-      <c r="I240" s="9"/>
-      <c r="J240" s="9"/>
-      <c r="K240" s="9"/>
-      <c r="L240" s="9"/>
-      <c r="M240" s="9"/>
-      <c r="N240" s="9"/>
-      <c r="O240" s="9"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="12"/>
+      <c r="L240" s="12"/>
+      <c r="M240" s="12"/>
+      <c r="N240" s="12"/>
+      <c r="O240" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -11166,8 +11229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FABA8B-2BBF-4515-8CA9-E0A3A373D9CA}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L29"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11324,11 +11387,11 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -11338,13 +11401,13 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -11550,5 +11613,6 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03 PE/002 PE头关键字段 PE头解释器.xlsx
+++ b/03 PE/002 PE头关键字段 PE头解释器.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F3E46C-031E-4B51-BEAC-E086A29048B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559FDAF5-8012-43CB-B496-E21830326878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -504,10 +504,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3、可选PE头(不固定)：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    拉伸</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1325,9 +1321,6 @@
     <t>case 3:</t>
   </si>
   <si>
-    <t>// 可选pe头有x32，x86</t>
-  </si>
-  <si>
     <t>if(p_stdpe-&gt;Machine==0x14c)</t>
   </si>
   <si>
@@ -1373,6 +1366,14 @@
   </si>
   <si>
     <t xml:space="preserve">    ②</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、可选PE头(0x86:0xE0字节、0x64:0xF0字节)：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 可选pe头有x86，x86-64</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2091,7 +2092,7 @@
   <dimension ref="B5:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2140,15 +2141,15 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G11" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G12" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2156,19 +2157,19 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="J13" s="11"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G15" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -2199,14 +2200,14 @@
   </sheetPr>
   <dimension ref="B4:L102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2233,7 +2234,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2294,8 +2295,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>158</v>
+      <c r="B20" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2738,7 +2739,7 @@
       <c r="D91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J91" s="5"/>
       <c r="L91">
@@ -3264,15 +3265,15 @@
   </sheetPr>
   <dimension ref="C6:L78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -3286,7 +3287,7 @@
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -3300,7 +3301,7 @@
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -3326,7 +3327,7 @@
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3352,7 +3353,7 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -3381,7 +3382,7 @@
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -3395,7 +3396,7 @@
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3409,7 +3410,7 @@
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -3423,7 +3424,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -3437,7 +3438,7 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -3451,7 +3452,7 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -3465,7 +3466,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -3479,7 +3480,7 @@
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -3505,7 +3506,7 @@
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -3519,7 +3520,7 @@
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -3545,7 +3546,7 @@
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -3595,7 +3596,7 @@
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -3610,7 +3611,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3624,7 +3625,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -3638,7 +3639,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -3667,7 +3668,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -3682,7 +3683,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -3696,7 +3697,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -3710,7 +3711,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -3723,7 +3724,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -3738,7 +3739,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -3752,7 +3753,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -3766,7 +3767,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -3779,7 +3780,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -3794,7 +3795,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -3808,7 +3809,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -3822,7 +3823,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -3835,7 +3836,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -3862,7 +3863,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -3876,7 +3877,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3890,7 +3891,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -3919,7 +3920,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3933,7 +3934,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3946,7 +3947,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -3961,7 +3962,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3975,7 +3976,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -4002,7 +4003,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -4015,7 +4016,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -4030,7 +4031,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -4044,7 +4045,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -4058,7 +4059,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -4072,7 +4073,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -4086,7 +4087,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -4111,7 +4112,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -4126,7 +4127,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -4152,7 +4153,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -4191,7 +4192,7 @@
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="9"/>
       <c r="D73" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -4205,7 +4206,7 @@
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -4219,7 +4220,7 @@
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -4245,7 +4246,7 @@
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="9"/>
       <c r="D77" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -4293,7 +4294,7 @@
   <sheetData>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -4313,7 +4314,7 @@
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4351,7 +4352,7 @@
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -4371,7 +4372,7 @@
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -4391,7 +4392,7 @@
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -4447,7 +4448,7 @@
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -4488,7 +4489,7 @@
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -4508,7 +4509,7 @@
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -4528,7 +4529,7 @@
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -4566,7 +4567,7 @@
     <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -4607,7 +4608,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -4627,7 +4628,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -4647,7 +4648,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -4667,7 +4668,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -4687,7 +4688,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -4707,7 +4708,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -4748,7 +4749,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -4768,7 +4769,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -4788,7 +4789,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -4809,7 +4810,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -4904,7 +4905,7 @@
     <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -4945,7 +4946,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -4966,7 +4967,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -4986,7 +4987,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -5005,7 +5006,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -5026,7 +5027,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -5046,7 +5047,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -5066,7 +5067,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -5085,7 +5086,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -5106,7 +5107,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -5126,7 +5127,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -5146,7 +5147,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -5166,7 +5167,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -5203,7 +5204,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -5224,7 +5225,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -5244,7 +5245,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -5264,7 +5265,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -5284,7 +5285,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -5415,7 +5416,7 @@
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C62" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -5456,7 +5457,7 @@
     <row r="64" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C64" s="9"/>
       <c r="D64" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -5476,7 +5477,7 @@
     <row r="65" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C65" s="9"/>
       <c r="D65" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -5517,7 +5518,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -5536,7 +5537,7 @@
     <row r="68" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -5687,7 +5688,7 @@
     </row>
     <row r="76" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C76" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -5728,7 +5729,7 @@
     <row r="78" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -5748,7 +5749,7 @@
     <row r="79" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -5789,7 +5790,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -5808,7 +5809,7 @@
     <row r="82" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C82" s="9"/>
       <c r="D82" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -5959,7 +5960,7 @@
     </row>
     <row r="90" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C90" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -6000,7 +6001,7 @@
     <row r="92" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C92" s="9"/>
       <c r="D92" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -6041,7 +6042,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -6065,7 +6066,7 @@
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -6085,7 +6086,7 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -6105,7 +6106,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -6125,7 +6126,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -6145,7 +6146,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -6165,7 +6166,7 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -6185,7 +6186,7 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -6201,7 +6202,7 @@
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -6223,7 +6224,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -6243,7 +6244,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -6263,7 +6264,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
@@ -6283,7 +6284,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -6303,7 +6304,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -6323,7 +6324,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
@@ -6343,7 +6344,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
@@ -6378,7 +6379,7 @@
     <row r="111" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
       <c r="D111" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -6399,7 +6400,7 @@
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -6475,7 +6476,7 @@
     </row>
     <row r="116" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C116" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -6516,7 +6517,7 @@
     <row r="118" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
       <c r="D118" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -6536,7 +6537,7 @@
     <row r="119" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
       <c r="D119" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -6577,7 +6578,7 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -6596,7 +6597,7 @@
     <row r="122" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
       <c r="D122" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -6693,7 +6694,7 @@
     </row>
     <row r="127" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C127" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -6734,7 +6735,7 @@
     <row r="129" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C129" s="9"/>
       <c r="D129" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -6772,7 +6773,7 @@
     <row r="131" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C131" s="9"/>
       <c r="D131" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
@@ -6813,7 +6814,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
@@ -6832,7 +6833,7 @@
     <row r="134" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C134" s="9"/>
       <c r="D134" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -6965,7 +6966,7 @@
     </row>
     <row r="141" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C141" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -7006,7 +7007,7 @@
     <row r="143" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -7026,7 +7027,7 @@
     <row r="144" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C144" s="9"/>
       <c r="D144" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -7067,7 +7068,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
@@ -7086,7 +7087,7 @@
     <row r="147" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C147" s="9"/>
       <c r="D147" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -7219,7 +7220,7 @@
     </row>
     <row r="154" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C154" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -7252,7 +7253,7 @@
   </sheetPr>
   <dimension ref="C6:Q240"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A120" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
@@ -7260,7 +7261,7 @@
   <sheetData>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7277,7 +7278,7 @@
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -7294,7 +7295,7 @@
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -7326,7 +7327,7 @@
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -7343,7 +7344,7 @@
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -7375,7 +7376,7 @@
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -7392,7 +7393,7 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -7409,7 +7410,7 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -7471,7 +7472,7 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -7506,7 +7507,7 @@
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7541,7 +7542,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -7562,7 +7563,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -7579,7 +7580,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -7596,7 +7597,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -7613,7 +7614,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -7630,7 +7631,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -7647,7 +7648,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -7664,7 +7665,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -7681,7 +7682,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -7698,7 +7699,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -7715,7 +7716,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -7732,7 +7733,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -7749,7 +7750,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -7766,7 +7767,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -7783,7 +7784,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -7800,7 +7801,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
@@ -7817,7 +7818,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -7834,7 +7835,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -7851,7 +7852,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -7879,7 +7880,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7897,7 +7898,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -7914,7 +7915,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -7931,7 +7932,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -7948,7 +7949,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -7965,7 +7966,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -7982,7 +7983,7 @@
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -7999,7 +8000,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -8016,7 +8017,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -8033,7 +8034,7 @@
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -8050,7 +8051,7 @@
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -8067,7 +8068,7 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -8084,7 +8085,7 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -8101,7 +8102,7 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -8118,7 +8119,7 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -8135,7 +8136,7 @@
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -8152,7 +8153,7 @@
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -8169,7 +8170,7 @@
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -8186,7 +8187,7 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -8207,7 +8208,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
@@ -8224,7 +8225,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -8237,7 +8238,7 @@
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -8252,7 +8253,7 @@
     <row r="65" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="D65" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -8270,7 +8271,7 @@
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -8379,7 +8380,7 @@
     </row>
     <row r="73" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C73" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -8414,7 +8415,7 @@
     <row r="75" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C75" s="12"/>
       <c r="D75" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -8449,7 +8450,7 @@
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -8470,7 +8471,7 @@
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
@@ -8487,7 +8488,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
@@ -8500,7 +8501,7 @@
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
@@ -8519,7 +8520,7 @@
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -8536,7 +8537,7 @@
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -8553,7 +8554,7 @@
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -8582,7 +8583,7 @@
     <row r="85" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C85" s="12"/>
       <c r="D85" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -8600,7 +8601,7 @@
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -8694,7 +8695,7 @@
     </row>
     <row r="92" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C92" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -8729,7 +8730,7 @@
     <row r="94" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C94" s="12"/>
       <c r="D94" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -8764,7 +8765,7 @@
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
@@ -8785,7 +8786,7 @@
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
@@ -8802,7 +8803,7 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
@@ -8819,7 +8820,7 @@
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
@@ -8836,7 +8837,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
@@ -8853,7 +8854,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
@@ -8870,7 +8871,7 @@
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
@@ -8887,7 +8888,7 @@
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
@@ -8904,7 +8905,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
@@ -8921,7 +8922,7 @@
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
@@ -8938,7 +8939,7 @@
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
@@ -8955,7 +8956,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
@@ -8972,7 +8973,7 @@
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
@@ -8989,7 +8990,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
@@ -9006,7 +9007,7 @@
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
@@ -9023,7 +9024,7 @@
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
@@ -9040,7 +9041,7 @@
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
@@ -9057,7 +9058,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
@@ -9074,7 +9075,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
@@ -9091,7 +9092,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
@@ -9108,7 +9109,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
@@ -9125,7 +9126,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
@@ -9142,7 +9143,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
@@ -9159,7 +9160,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
@@ -9176,7 +9177,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
@@ -9193,7 +9194,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
@@ -9210,7 +9211,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
@@ -9227,7 +9228,7 @@
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
@@ -9244,7 +9245,7 @@
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
@@ -9261,7 +9262,7 @@
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
@@ -9278,7 +9279,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
@@ -9295,7 +9296,7 @@
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
@@ -9308,7 +9309,7 @@
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -9327,7 +9328,7 @@
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -9344,7 +9345,7 @@
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
@@ -9361,7 +9362,7 @@
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
@@ -9378,7 +9379,7 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -9395,7 +9396,7 @@
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
@@ -9412,7 +9413,7 @@
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -9429,7 +9430,7 @@
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
@@ -9446,7 +9447,7 @@
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -9463,7 +9464,7 @@
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -9480,7 +9481,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -9497,7 +9498,7 @@
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -9514,7 +9515,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -9531,7 +9532,7 @@
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -9548,7 +9549,7 @@
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
@@ -9565,7 +9566,7 @@
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
@@ -9582,7 +9583,7 @@
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
@@ -9599,7 +9600,7 @@
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
@@ -9616,7 +9617,7 @@
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -9633,7 +9634,7 @@
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -9650,7 +9651,7 @@
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -9667,7 +9668,7 @@
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -9684,7 +9685,7 @@
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
@@ -9701,7 +9702,7 @@
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
@@ -9718,7 +9719,7 @@
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
@@ -9735,7 +9736,7 @@
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
@@ -9752,7 +9753,7 @@
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
@@ -9769,7 +9770,7 @@
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
@@ -9786,7 +9787,7 @@
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
@@ -9803,7 +9804,7 @@
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
@@ -9820,7 +9821,7 @@
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
@@ -9837,7 +9838,7 @@
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
@@ -9851,7 +9852,7 @@
     <row r="160" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C160" s="12"/>
       <c r="D160" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -9869,7 +9870,7 @@
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
@@ -9963,7 +9964,7 @@
     </row>
     <row r="167" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C167" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
@@ -10013,7 +10014,7 @@
     <row r="170" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C170" s="12"/>
       <c r="D170" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
@@ -10048,7 +10049,7 @@
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
@@ -10069,7 +10070,7 @@
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
       <c r="I173" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J173" s="12"/>
       <c r="K173" s="12"/>
@@ -10086,7 +10087,7 @@
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J174" s="12"/>
       <c r="K174" s="12"/>
@@ -10103,7 +10104,7 @@
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
@@ -10120,7 +10121,7 @@
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J176" s="12"/>
       <c r="K176" s="12"/>
@@ -10137,7 +10138,7 @@
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J177" s="12"/>
       <c r="K177" s="12"/>
@@ -10154,7 +10155,7 @@
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J178" s="12"/>
       <c r="K178" s="12"/>
@@ -10171,7 +10172,7 @@
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J179" s="12"/>
       <c r="K179" s="12"/>
@@ -10188,7 +10189,7 @@
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J180" s="12"/>
       <c r="K180" s="12"/>
@@ -10205,13 +10206,13 @@
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
       <c r="I181" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J181" s="13"/>
       <c r="K181" s="13"/>
       <c r="L181" s="13"/>
       <c r="M181" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
@@ -10226,7 +10227,7 @@
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
       <c r="I182" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J182" s="12"/>
       <c r="K182" s="12"/>
@@ -10243,7 +10244,7 @@
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J183" s="12"/>
       <c r="K183" s="12"/>
@@ -10260,7 +10261,7 @@
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J184" s="12"/>
       <c r="K184" s="12"/>
@@ -10277,7 +10278,7 @@
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
       <c r="I185" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J185" s="12"/>
       <c r="K185" s="12"/>
@@ -10294,7 +10295,7 @@
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J186" s="12"/>
       <c r="K186" s="12"/>
@@ -10311,7 +10312,7 @@
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
       <c r="I187" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J187" s="12"/>
       <c r="K187" s="12"/>
@@ -10328,7 +10329,7 @@
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J188" s="12"/>
       <c r="K188" s="12"/>
@@ -10345,7 +10346,7 @@
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
       <c r="I189" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J189" s="12"/>
       <c r="K189" s="12"/>
@@ -10362,7 +10363,7 @@
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
       <c r="I190" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J190" s="12"/>
       <c r="K190" s="12"/>
@@ -10379,7 +10380,7 @@
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
       <c r="I191" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J191" s="12"/>
       <c r="K191" s="12"/>
@@ -10396,7 +10397,7 @@
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
       <c r="I192" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J192" s="12"/>
       <c r="K192" s="12"/>
@@ -10413,7 +10414,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="12"/>
@@ -10430,7 +10431,7 @@
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J194" s="12"/>
       <c r="K194" s="12"/>
@@ -10447,7 +10448,7 @@
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J195" s="12"/>
       <c r="K195" s="12"/>
@@ -10464,7 +10465,7 @@
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
       <c r="I196" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="12"/>
@@ -10481,7 +10482,7 @@
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
       <c r="I197" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J197" s="12"/>
       <c r="K197" s="12"/>
@@ -10498,7 +10499,7 @@
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
       <c r="I198" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J198" s="12"/>
       <c r="K198" s="12"/>
@@ -10515,7 +10516,7 @@
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
       <c r="I199" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J199" s="12"/>
       <c r="K199" s="12"/>
@@ -10532,7 +10533,7 @@
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
       <c r="I200" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J200" s="12"/>
       <c r="K200" s="12"/>
@@ -10549,7 +10550,7 @@
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
       <c r="I201" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J201" s="12"/>
       <c r="K201" s="12"/>
@@ -10566,7 +10567,7 @@
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J202" s="12"/>
       <c r="K202" s="12"/>
@@ -10579,7 +10580,7 @@
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
       <c r="E203" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -10598,7 +10599,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
@@ -10615,7 +10616,7 @@
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
@@ -10632,7 +10633,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
@@ -10649,7 +10650,7 @@
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
@@ -10666,7 +10667,7 @@
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
       <c r="G208" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
@@ -10683,7 +10684,7 @@
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
       <c r="G209" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
@@ -10700,7 +10701,7 @@
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
       <c r="G210" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
@@ -10717,7 +10718,7 @@
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
       <c r="G211" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
@@ -10734,7 +10735,7 @@
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
       <c r="G212" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
@@ -10751,7 +10752,7 @@
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
       <c r="G213" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
@@ -10768,7 +10769,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
       <c r="G214" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
@@ -10785,7 +10786,7 @@
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
       <c r="G215" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
@@ -10802,7 +10803,7 @@
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
@@ -10819,7 +10820,7 @@
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
       <c r="G217" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
@@ -10836,7 +10837,7 @@
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
       <c r="G218" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
@@ -10853,7 +10854,7 @@
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
       <c r="G219" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
@@ -10870,7 +10871,7 @@
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
@@ -10887,7 +10888,7 @@
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
       <c r="G221" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H221" s="12"/>
       <c r="I221" s="12"/>
@@ -10904,7 +10905,7 @@
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
       <c r="G222" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H222" s="12"/>
       <c r="I222" s="12"/>
@@ -10921,7 +10922,7 @@
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
       <c r="G223" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H223" s="12"/>
       <c r="I223" s="12"/>
@@ -10938,7 +10939,7 @@
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
       <c r="G224" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H224" s="12"/>
       <c r="I224" s="12"/>
@@ -10955,7 +10956,7 @@
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
       <c r="G225" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H225" s="12"/>
       <c r="I225" s="12"/>
@@ -10972,7 +10973,7 @@
       <c r="E226" s="12"/>
       <c r="F226" s="12"/>
       <c r="G226" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H226" s="12"/>
       <c r="I226" s="12"/>
@@ -10989,7 +10990,7 @@
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
       <c r="G227" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H227" s="12"/>
       <c r="I227" s="12"/>
@@ -11006,7 +11007,7 @@
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
       <c r="G228" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H228" s="12"/>
       <c r="I228" s="12"/>
@@ -11023,7 +11024,7 @@
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
       <c r="G229" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H229" s="12"/>
       <c r="I229" s="12"/>
@@ -11040,7 +11041,7 @@
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
       <c r="G230" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H230" s="12"/>
       <c r="I230" s="12"/>
@@ -11057,7 +11058,7 @@
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
       <c r="G231" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
@@ -11074,7 +11075,7 @@
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
       <c r="G232" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
@@ -11091,7 +11092,7 @@
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
       <c r="G233" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
@@ -11105,7 +11106,7 @@
     <row r="234" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C234" s="12"/>
       <c r="D234" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
@@ -11123,7 +11124,7 @@
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
@@ -11202,7 +11203,7 @@
     </row>
     <row r="240" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C240" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
@@ -11240,7 +11241,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -11254,7 +11255,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -11268,7 +11269,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -11282,7 +11283,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -11308,7 +11309,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -11322,7 +11323,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -11348,7 +11349,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -11362,7 +11363,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -11388,7 +11389,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -11402,10 +11403,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="9"/>
@@ -11418,7 +11419,7 @@
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -11432,7 +11433,7 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -11470,7 +11471,7 @@
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -11484,7 +11485,7 @@
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -11498,7 +11499,7 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -11512,7 +11513,7 @@
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -11526,7 +11527,7 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -11540,7 +11541,7 @@
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -11578,7 +11579,7 @@
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -11592,22 +11593,22 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/03 PE/002 PE头关键字段 PE头解释器.xlsx
+++ b/03 PE/002 PE头关键字段 PE头解释器.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559FDAF5-8012-43CB-B496-E21830326878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3F2A1-5CBF-4B10-8E93-ACAB570FA767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -1369,11 +1369,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3、可选PE头(0x86:0xE0字节、0x64:0xF0字节)：</t>
+    <t>// 可选pe头有x86，x86-64</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>// 可选pe头有x86，x86-64</t>
+    <t>3、可选PE头(0x86:0xE0字节、0x64:0xF0字节、可以自定义)：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2200,7 +2200,7 @@
   </sheetPr>
   <dimension ref="B4:L102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2282,7 +2282,7 @@
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -3265,8 +3265,8 @@
   </sheetPr>
   <dimension ref="C6:L78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3863,7 +3863,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>

--- a/03 PE/002 PE头关键字段 PE头解释器.xlsx
+++ b/03 PE/002 PE头关键字段 PE头解释器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3F2A1-5CBF-4B10-8E93-ACAB570FA767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE1510-C156-4C8C-8A13-6C1F83C913D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>程序运行的CPU型号：0x0 任何处理器/0x14C 386及后续处理器</t>
   </si>
   <si>
-    <t>WORD    NumberOfSections;     *</t>
-  </si>
-  <si>
     <t>文件中存在的节的总数,如果要新增节或者合并节 就要修改这个值.</t>
   </si>
   <si>
@@ -1374,6 +1371,10 @@
   </si>
   <si>
     <t>3、可选PE头(0x86:0xE0字节、0x64:0xF0字节、可以自定义)：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORD    NumberOfSections;     *</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1391,6 +1392,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1398,6 +1400,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1405,11 +1408,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1470,12 +1475,129 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1487,7 +1609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1528,6 +1650,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2141,15 +2314,15 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G11" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G12" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2157,19 +2330,19 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="J13" s="11"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G15" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -2198,338 +2371,408 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:L102"/>
+  <dimension ref="B4:N102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="F22" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" t="s">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
+    </row>
+    <row r="27" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="F27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+    </row>
+    <row r="28" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" t="s">
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="F29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="30" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>35</v>
       </c>
-      <c r="F30" t="s">
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" s="15"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="F33" t="s">
+      <c r="G33" s="19"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="21"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>54</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="F46" t="s">
         <v>58</v>
       </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="F47" t="s">
         <v>60</v>
       </c>
-      <c r="F47" t="s">
+      <c r="K47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K47" s="2" t="s">
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="F48" t="s">
         <v>63</v>
       </c>
-      <c r="F48" t="s">
+      <c r="K48" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
         <v>66</v>
       </c>
-      <c r="F49" t="s">
+      <c r="K49" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
         <v>71</v>
       </c>
-      <c r="F51" t="s">
+      <c r="K51" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2537,7 +2780,7 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54">
@@ -2546,13 +2789,13 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K56" s="4"/>
     </row>
@@ -2561,19 +2804,19 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K60" s="4"/>
     </row>
@@ -2665,15 +2908,15 @@
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
+        <v>81</v>
+      </c>
+      <c r="J85" t="s">
         <v>82</v>
-      </c>
-      <c r="J85" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="86" spans="3:12" x14ac:dyDescent="0.25">
@@ -2681,52 +2924,52 @@
         <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I86" s="1">
         <v>400000</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D87" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J88" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J89" s="5"/>
     </row>
@@ -2739,7 +2982,7 @@
       <c r="D91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J91" s="5"/>
       <c r="L91">
@@ -2750,18 +2993,18 @@
       <c r="D92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D93" s="5"/>
       <c r="G93" s="5"/>
       <c r="J93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="3:12" x14ac:dyDescent="0.25">
@@ -2777,7 +3020,7 @@
     <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J96" s="4"/>
       <c r="K96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.25">
@@ -2792,12 +3035,12 @@
     <row r="100" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J100" s="4"/>
       <c r="K100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2822,432 +3065,432 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3516,7 @@
   <sheetData>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -3287,7 +3530,7 @@
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -3301,7 +3544,7 @@
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -3327,7 +3570,7 @@
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3353,7 +3596,7 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -3367,7 +3610,7 @@
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -3382,7 +3625,7 @@
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -3396,7 +3639,7 @@
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3410,7 +3653,7 @@
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -3424,7 +3667,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -3438,7 +3681,7 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -3452,7 +3695,7 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -3466,7 +3709,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -3480,7 +3723,7 @@
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -3506,7 +3749,7 @@
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -3520,7 +3763,7 @@
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -3546,7 +3789,7 @@
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -3596,7 +3839,7 @@
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -3611,7 +3854,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3625,7 +3868,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -3639,7 +3882,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -3653,7 +3896,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -3668,7 +3911,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -3683,7 +3926,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -3697,7 +3940,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -3711,7 +3954,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -3724,7 +3967,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -3739,7 +3982,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -3753,7 +3996,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -3767,7 +4010,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -3780,7 +4023,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -3795,7 +4038,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -3809,7 +4052,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -3823,7 +4066,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -3836,7 +4079,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -3863,7 +4106,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -3877,7 +4120,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3891,7 +4134,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -3905,7 +4148,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -3920,7 +4163,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3934,7 +4177,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3947,7 +4190,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -3962,7 +4205,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3976,7 +4219,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3989,7 +4232,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -4003,7 +4246,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -4016,7 +4259,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -4031,7 +4274,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -4045,7 +4288,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -4059,7 +4302,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -4073,7 +4316,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -4087,7 +4330,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -4112,7 +4355,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -4127,7 +4370,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -4139,7 +4382,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -4153,7 +4396,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -4166,7 +4409,7 @@
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="9"/>
       <c r="D71" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -4192,7 +4435,7 @@
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="9"/>
       <c r="D73" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -4206,7 +4449,7 @@
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -4220,7 +4463,7 @@
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -4246,7 +4489,7 @@
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="9"/>
       <c r="D77" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -4259,7 +4502,7 @@
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -4294,7 +4537,7 @@
   <sheetData>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -4314,7 +4557,7 @@
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4352,7 +4595,7 @@
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -4372,7 +4615,7 @@
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -4392,7 +4635,7 @@
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -4448,7 +4691,7 @@
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -4468,7 +4711,7 @@
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -4489,7 +4732,7 @@
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -4509,7 +4752,7 @@
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -4529,7 +4772,7 @@
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -4567,7 +4810,7 @@
     <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -4587,7 +4830,7 @@
     <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -4608,7 +4851,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -4628,7 +4871,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -4648,7 +4891,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -4668,7 +4911,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -4688,7 +4931,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -4708,7 +4951,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -4728,7 +4971,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -4749,7 +4992,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -4769,7 +5012,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -4789,7 +5032,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -4810,7 +5053,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -4829,7 +5072,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -4848,7 +5091,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -4867,7 +5110,7 @@
     <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -4905,7 +5148,7 @@
     <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -4925,7 +5168,7 @@
     <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -4946,7 +5189,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -4967,7 +5210,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -4987,7 +5230,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -5006,7 +5249,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -5027,7 +5270,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -5047,7 +5290,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -5067,7 +5310,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -5086,7 +5329,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -5107,7 +5350,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -5127,7 +5370,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -5147,7 +5390,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -5167,7 +5410,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -5204,7 +5447,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -5225,7 +5468,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -5245,7 +5488,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -5265,7 +5508,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -5285,7 +5528,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -5303,7 +5546,7 @@
     <row r="56" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -5341,7 +5584,7 @@
     <row r="58" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C58" s="9"/>
       <c r="D58" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -5360,7 +5603,7 @@
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -5416,7 +5659,7 @@
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C62" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -5436,7 +5679,7 @@
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -5457,7 +5700,7 @@
     <row r="64" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C64" s="9"/>
       <c r="D64" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -5477,7 +5720,7 @@
     <row r="65" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C65" s="9"/>
       <c r="D65" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -5497,7 +5740,7 @@
     <row r="66" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C66" s="9"/>
       <c r="D66" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -5518,7 +5761,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -5537,7 +5780,7 @@
     <row r="68" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -5558,7 +5801,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -5577,7 +5820,7 @@
     <row r="70" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -5596,7 +5839,7 @@
     </row>
     <row r="71" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -5688,7 +5931,7 @@
     </row>
     <row r="76" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C76" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -5708,7 +5951,7 @@
     </row>
     <row r="77" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C77" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -5729,7 +5972,7 @@
     <row r="78" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -5749,7 +5992,7 @@
     <row r="79" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -5769,7 +6012,7 @@
     <row r="80" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -5790,7 +6033,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -5809,7 +6052,7 @@
     <row r="82" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C82" s="9"/>
       <c r="D82" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -5830,7 +6073,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -5849,7 +6092,7 @@
     <row r="84" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C84" s="9"/>
       <c r="D84" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -5868,7 +6111,7 @@
     </row>
     <row r="85" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C85" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -5960,7 +6203,7 @@
     </row>
     <row r="90" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C90" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -5980,7 +6223,7 @@
     </row>
     <row r="91" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C91" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -6001,7 +6244,7 @@
     <row r="92" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C92" s="9"/>
       <c r="D92" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -6021,7 +6264,7 @@
     <row r="93" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C93" s="9"/>
       <c r="D93" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -6042,7 +6285,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -6066,7 +6309,7 @@
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -6086,7 +6329,7 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -6106,7 +6349,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -6126,7 +6369,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -6146,7 +6389,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -6166,7 +6409,7 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -6186,7 +6429,7 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -6202,7 +6445,7 @@
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -6224,7 +6467,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -6244,7 +6487,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -6264,7 +6507,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
@@ -6284,7 +6527,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -6304,7 +6547,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -6324,7 +6567,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
@@ -6344,7 +6587,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
@@ -6379,7 +6622,7 @@
     <row r="111" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
       <c r="D111" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -6400,7 +6643,7 @@
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -6419,7 +6662,7 @@
     <row r="113" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C113" s="9"/>
       <c r="D113" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -6438,7 +6681,7 @@
     </row>
     <row r="114" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C114" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -6476,7 +6719,7 @@
     </row>
     <row r="116" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C116" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -6496,7 +6739,7 @@
     </row>
     <row r="117" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C117" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -6517,7 +6760,7 @@
     <row r="118" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
       <c r="D118" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -6537,7 +6780,7 @@
     <row r="119" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
       <c r="D119" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -6557,7 +6800,7 @@
     <row r="120" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
       <c r="D120" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
@@ -6578,7 +6821,7 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -6597,7 +6840,7 @@
     <row r="122" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
       <c r="D122" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -6618,7 +6861,7 @@
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
@@ -6637,7 +6880,7 @@
     <row r="124" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
       <c r="D124" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -6656,7 +6899,7 @@
     </row>
     <row r="125" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C125" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -6694,7 +6937,7 @@
     </row>
     <row r="127" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C127" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -6714,7 +6957,7 @@
     </row>
     <row r="128" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C128" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -6735,7 +6978,7 @@
     <row r="129" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C129" s="9"/>
       <c r="D129" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -6773,7 +7016,7 @@
     <row r="131" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C131" s="9"/>
       <c r="D131" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
@@ -6793,7 +7036,7 @@
     <row r="132" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C132" s="9"/>
       <c r="D132" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -6814,7 +7057,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
@@ -6833,7 +7076,7 @@
     <row r="134" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C134" s="9"/>
       <c r="D134" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -6854,7 +7097,7 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
@@ -6873,7 +7116,7 @@
     <row r="136" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C136" s="9"/>
       <c r="D136" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -6892,7 +7135,7 @@
     </row>
     <row r="137" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C137" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -6966,7 +7209,7 @@
     </row>
     <row r="141" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C141" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -6986,7 +7229,7 @@
     </row>
     <row r="142" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C142" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -7007,7 +7250,7 @@
     <row r="143" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -7027,7 +7270,7 @@
     <row r="144" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C144" s="9"/>
       <c r="D144" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -7047,7 +7290,7 @@
     <row r="145" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C145" s="9"/>
       <c r="D145" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
@@ -7068,7 +7311,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
@@ -7087,7 +7330,7 @@
     <row r="147" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C147" s="9"/>
       <c r="D147" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -7108,7 +7351,7 @@
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
@@ -7127,7 +7370,7 @@
     <row r="149" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
@@ -7146,7 +7389,7 @@
     </row>
     <row r="150" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C150" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -7220,7 +7463,7 @@
     </row>
     <row r="154" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C154" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -7261,7 +7504,7 @@
   <sheetData>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7278,7 +7521,7 @@
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -7295,7 +7538,7 @@
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -7327,7 +7570,7 @@
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -7344,7 +7587,7 @@
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -7376,7 +7619,7 @@
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -7393,7 +7636,7 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -7410,7 +7653,7 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -7472,7 +7715,7 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -7489,7 +7732,7 @@
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -7507,7 +7750,7 @@
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7524,7 +7767,7 @@
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -7542,7 +7785,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -7563,7 +7806,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -7580,7 +7823,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -7597,7 +7840,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -7614,7 +7857,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -7631,7 +7874,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -7648,7 +7891,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -7665,7 +7908,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -7682,7 +7925,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -7699,7 +7942,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -7716,7 +7959,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -7733,7 +7976,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -7750,7 +7993,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -7767,7 +8010,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -7784,7 +8027,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -7801,7 +8044,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
@@ -7818,7 +8061,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -7835,7 +8078,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -7852,7 +8095,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -7880,7 +8123,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7898,7 +8141,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -7915,7 +8158,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -7932,7 +8175,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -7949,7 +8192,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -7966,7 +8209,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -7983,7 +8226,7 @@
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -8000,7 +8243,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -8017,7 +8260,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -8034,7 +8277,7 @@
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -8051,7 +8294,7 @@
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -8068,7 +8311,7 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -8085,7 +8328,7 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -8102,7 +8345,7 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -8119,7 +8362,7 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -8136,7 +8379,7 @@
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -8153,7 +8396,7 @@
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -8170,7 +8413,7 @@
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -8187,7 +8430,7 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -8208,7 +8451,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
@@ -8225,7 +8468,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -8238,7 +8481,7 @@
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -8253,7 +8496,7 @@
     <row r="65" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="D65" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -8271,7 +8514,7 @@
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -8287,7 +8530,7 @@
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C67" s="12"/>
       <c r="D67" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -8303,7 +8546,7 @@
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C68" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -8380,7 +8623,7 @@
     </row>
     <row r="73" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C73" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -8397,7 +8640,7 @@
     </row>
     <row r="74" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C74" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -8415,7 +8658,7 @@
     <row r="75" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C75" s="12"/>
       <c r="D75" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -8432,7 +8675,7 @@
     <row r="76" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -8450,7 +8693,7 @@
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -8471,7 +8714,7 @@
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
@@ -8488,7 +8731,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
@@ -8501,7 +8744,7 @@
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
@@ -8520,7 +8763,7 @@
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -8537,7 +8780,7 @@
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -8554,7 +8797,7 @@
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -8583,7 +8826,7 @@
     <row r="85" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C85" s="12"/>
       <c r="D85" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -8601,7 +8844,7 @@
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -8617,7 +8860,7 @@
     <row r="87" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C87" s="12"/>
       <c r="D87" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -8633,7 +8876,7 @@
     </row>
     <row r="88" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C88" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -8695,7 +8938,7 @@
     </row>
     <row r="92" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C92" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -8712,7 +8955,7 @@
     </row>
     <row r="93" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C93" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
@@ -8730,7 +8973,7 @@
     <row r="94" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C94" s="12"/>
       <c r="D94" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -8747,7 +8990,7 @@
     <row r="95" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C95" s="12"/>
       <c r="D95" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -8765,7 +9008,7 @@
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
@@ -8786,7 +9029,7 @@
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
@@ -8803,7 +9046,7 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
@@ -8820,7 +9063,7 @@
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
@@ -8837,7 +9080,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
@@ -8854,7 +9097,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
@@ -8871,7 +9114,7 @@
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
@@ -8888,7 +9131,7 @@
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
@@ -8905,7 +9148,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
@@ -8922,7 +9165,7 @@
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
@@ -8939,7 +9182,7 @@
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
@@ -8956,7 +9199,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
@@ -8973,7 +9216,7 @@
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
@@ -8990,7 +9233,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
@@ -9007,7 +9250,7 @@
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
@@ -9024,7 +9267,7 @@
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
@@ -9041,7 +9284,7 @@
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
@@ -9058,7 +9301,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
@@ -9075,7 +9318,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
@@ -9092,7 +9335,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
@@ -9109,7 +9352,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
@@ -9126,7 +9369,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
@@ -9143,7 +9386,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
@@ -9160,7 +9403,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
@@ -9177,7 +9420,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
@@ -9194,7 +9437,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
@@ -9211,7 +9454,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
@@ -9228,7 +9471,7 @@
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
@@ -9245,7 +9488,7 @@
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
@@ -9262,7 +9505,7 @@
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
@@ -9279,7 +9522,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
@@ -9296,7 +9539,7 @@
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
@@ -9309,7 +9552,7 @@
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -9328,7 +9571,7 @@
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -9345,7 +9588,7 @@
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
@@ -9362,7 +9605,7 @@
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
@@ -9379,7 +9622,7 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -9396,7 +9639,7 @@
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
@@ -9413,7 +9656,7 @@
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -9430,7 +9673,7 @@
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
@@ -9447,7 +9690,7 @@
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -9464,7 +9707,7 @@
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -9481,7 +9724,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -9498,7 +9741,7 @@
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -9515,7 +9758,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -9532,7 +9775,7 @@
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -9549,7 +9792,7 @@
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
@@ -9566,7 +9809,7 @@
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
@@ -9583,7 +9826,7 @@
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
@@ -9600,7 +9843,7 @@
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
@@ -9617,7 +9860,7 @@
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -9634,7 +9877,7 @@
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -9651,7 +9894,7 @@
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -9668,7 +9911,7 @@
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -9685,7 +9928,7 @@
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
@@ -9702,7 +9945,7 @@
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
@@ -9719,7 +9962,7 @@
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
@@ -9736,7 +9979,7 @@
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
@@ -9753,7 +9996,7 @@
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
@@ -9770,7 +10013,7 @@
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
@@ -9787,7 +10030,7 @@
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
@@ -9804,7 +10047,7 @@
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
@@ -9821,7 +10064,7 @@
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
@@ -9838,7 +10081,7 @@
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
@@ -9852,7 +10095,7 @@
     <row r="160" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C160" s="12"/>
       <c r="D160" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -9870,7 +10113,7 @@
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
@@ -9886,7 +10129,7 @@
     <row r="162" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C162" s="12"/>
       <c r="D162" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
@@ -9902,7 +10145,7 @@
     </row>
     <row r="163" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C163" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
@@ -9964,7 +10207,7 @@
     </row>
     <row r="167" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C167" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
@@ -9981,7 +10224,7 @@
     </row>
     <row r="168" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C168" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
@@ -10014,7 +10257,7 @@
     <row r="170" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C170" s="12"/>
       <c r="D170" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
@@ -10031,7 +10274,7 @@
     <row r="171" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C171" s="12"/>
       <c r="D171" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
@@ -10049,7 +10292,7 @@
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
@@ -10070,7 +10313,7 @@
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
       <c r="I173" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J173" s="12"/>
       <c r="K173" s="12"/>
@@ -10087,7 +10330,7 @@
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J174" s="12"/>
       <c r="K174" s="12"/>
@@ -10104,7 +10347,7 @@
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
@@ -10121,7 +10364,7 @@
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J176" s="12"/>
       <c r="K176" s="12"/>
@@ -10138,7 +10381,7 @@
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J177" s="12"/>
       <c r="K177" s="12"/>
@@ -10155,7 +10398,7 @@
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J178" s="12"/>
       <c r="K178" s="12"/>
@@ -10172,7 +10415,7 @@
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J179" s="12"/>
       <c r="K179" s="12"/>
@@ -10189,7 +10432,7 @@
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J180" s="12"/>
       <c r="K180" s="12"/>
@@ -10206,13 +10449,13 @@
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
       <c r="I181" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J181" s="13"/>
       <c r="K181" s="13"/>
       <c r="L181" s="13"/>
       <c r="M181" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
@@ -10227,7 +10470,7 @@
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
       <c r="I182" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J182" s="12"/>
       <c r="K182" s="12"/>
@@ -10244,7 +10487,7 @@
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J183" s="12"/>
       <c r="K183" s="12"/>
@@ -10261,7 +10504,7 @@
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J184" s="12"/>
       <c r="K184" s="12"/>
@@ -10278,7 +10521,7 @@
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
       <c r="I185" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J185" s="12"/>
       <c r="K185" s="12"/>
@@ -10295,7 +10538,7 @@
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J186" s="12"/>
       <c r="K186" s="12"/>
@@ -10312,7 +10555,7 @@
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
       <c r="I187" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J187" s="12"/>
       <c r="K187" s="12"/>
@@ -10329,7 +10572,7 @@
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J188" s="12"/>
       <c r="K188" s="12"/>
@@ -10346,7 +10589,7 @@
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
       <c r="I189" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J189" s="12"/>
       <c r="K189" s="12"/>
@@ -10363,7 +10606,7 @@
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
       <c r="I190" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J190" s="12"/>
       <c r="K190" s="12"/>
@@ -10380,7 +10623,7 @@
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
       <c r="I191" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J191" s="12"/>
       <c r="K191" s="12"/>
@@ -10397,7 +10640,7 @@
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
       <c r="I192" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J192" s="12"/>
       <c r="K192" s="12"/>
@@ -10414,7 +10657,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="12"/>
@@ -10431,7 +10674,7 @@
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J194" s="12"/>
       <c r="K194" s="12"/>
@@ -10448,7 +10691,7 @@
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J195" s="12"/>
       <c r="K195" s="12"/>
@@ -10465,7 +10708,7 @@
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
       <c r="I196" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="12"/>
@@ -10482,7 +10725,7 @@
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
       <c r="I197" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J197" s="12"/>
       <c r="K197" s="12"/>
@@ -10499,7 +10742,7 @@
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
       <c r="I198" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J198" s="12"/>
       <c r="K198" s="12"/>
@@ -10516,7 +10759,7 @@
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
       <c r="I199" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J199" s="12"/>
       <c r="K199" s="12"/>
@@ -10533,7 +10776,7 @@
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
       <c r="I200" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J200" s="12"/>
       <c r="K200" s="12"/>
@@ -10550,7 +10793,7 @@
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
       <c r="I201" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J201" s="12"/>
       <c r="K201" s="12"/>
@@ -10567,7 +10810,7 @@
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J202" s="12"/>
       <c r="K202" s="12"/>
@@ -10580,7 +10823,7 @@
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
       <c r="E203" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -10599,7 +10842,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
@@ -10616,7 +10859,7 @@
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
@@ -10633,7 +10876,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
@@ -10650,7 +10893,7 @@
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
@@ -10667,7 +10910,7 @@
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
       <c r="G208" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
@@ -10684,7 +10927,7 @@
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
       <c r="G209" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
@@ -10701,7 +10944,7 @@
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
       <c r="G210" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
@@ -10718,7 +10961,7 @@
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
       <c r="G211" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
@@ -10735,7 +10978,7 @@
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
       <c r="G212" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
@@ -10752,7 +10995,7 @@
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
       <c r="G213" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
@@ -10769,7 +11012,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
       <c r="G214" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
@@ -10786,7 +11029,7 @@
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
       <c r="G215" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
@@ -10803,7 +11046,7 @@
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
@@ -10820,7 +11063,7 @@
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
       <c r="G217" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
@@ -10837,7 +11080,7 @@
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
       <c r="G218" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
@@ -10854,7 +11097,7 @@
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
       <c r="G219" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
@@ -10871,7 +11114,7 @@
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
@@ -10888,7 +11131,7 @@
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
       <c r="G221" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H221" s="12"/>
       <c r="I221" s="12"/>
@@ -10905,7 +11148,7 @@
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
       <c r="G222" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H222" s="12"/>
       <c r="I222" s="12"/>
@@ -10922,7 +11165,7 @@
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
       <c r="G223" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H223" s="12"/>
       <c r="I223" s="12"/>
@@ -10939,7 +11182,7 @@
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
       <c r="G224" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H224" s="12"/>
       <c r="I224" s="12"/>
@@ -10956,7 +11199,7 @@
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
       <c r="G225" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H225" s="12"/>
       <c r="I225" s="12"/>
@@ -10973,7 +11216,7 @@
       <c r="E226" s="12"/>
       <c r="F226" s="12"/>
       <c r="G226" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H226" s="12"/>
       <c r="I226" s="12"/>
@@ -10990,7 +11233,7 @@
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
       <c r="G227" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H227" s="12"/>
       <c r="I227" s="12"/>
@@ -11007,7 +11250,7 @@
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
       <c r="G228" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H228" s="12"/>
       <c r="I228" s="12"/>
@@ -11024,7 +11267,7 @@
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
       <c r="G229" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H229" s="12"/>
       <c r="I229" s="12"/>
@@ -11041,7 +11284,7 @@
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
       <c r="G230" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H230" s="12"/>
       <c r="I230" s="12"/>
@@ -11058,7 +11301,7 @@
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
       <c r="G231" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
@@ -11075,7 +11318,7 @@
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
       <c r="G232" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
@@ -11092,7 +11335,7 @@
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
       <c r="G233" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
@@ -11106,7 +11349,7 @@
     <row r="234" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C234" s="12"/>
       <c r="D234" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
@@ -11124,7 +11367,7 @@
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
@@ -11140,7 +11383,7 @@
     <row r="236" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C236" s="12"/>
       <c r="D236" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
@@ -11156,7 +11399,7 @@
     </row>
     <row r="237" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C237" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
@@ -11203,7 +11446,7 @@
     </row>
     <row r="240" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C240" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
@@ -11241,7 +11484,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -11255,7 +11498,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -11269,7 +11512,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -11283,7 +11526,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -11309,7 +11552,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -11323,7 +11566,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -11349,7 +11592,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -11363,7 +11606,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -11389,7 +11632,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -11403,10 +11646,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="9"/>
@@ -11419,7 +11662,7 @@
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -11433,7 +11676,7 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -11471,7 +11714,7 @@
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -11485,7 +11728,7 @@
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -11499,7 +11742,7 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -11513,7 +11756,7 @@
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -11527,7 +11770,7 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -11541,7 +11784,7 @@
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -11579,7 +11822,7 @@
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -11593,22 +11836,22 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/03 PE/002 PE头关键字段 PE头解释器.xlsx
+++ b/03 PE/002 PE头关键字段 PE头解释器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE1510-C156-4C8C-8A13-6C1F83C913D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7BAF8C-E393-43B2-9C7F-FABD1E41012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2373,8 +2373,8 @@
   </sheetPr>
   <dimension ref="B4:N102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2443,7 +2443,7 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="19"/>

--- a/03 PE/002 PE头关键字段 PE头解释器.xlsx
+++ b/03 PE/002 PE头关键字段 PE头解释器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7BAF8C-E393-43B2-9C7F-FABD1E41012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8F43A-7BEB-40F8-8287-3BB5FFDDAE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>"MZ标记" 用于判断是否为可执行文件.</t>
   </si>
   <si>
-    <t>DWORD  e_lfanew;              *</t>
-  </si>
-  <si>
     <t>PE头相对于文件的偏移，用于定位PE文件</t>
   </si>
   <si>
@@ -1375,6 +1372,10 @@
   </si>
   <si>
     <t>WORD    NumberOfSections;     *</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWORD  e_lfanew;              *</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2314,15 +2315,15 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G11" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G12" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2330,19 +2331,19 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="J13" s="11"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G15" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -2373,15 +2374,15 @@
   </sheetPr>
   <dimension ref="B4:N102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2401,13 +2402,13 @@
     </row>
     <row r="7" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
-        <v>7</v>
+        <v>446</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -2415,19 +2416,19 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -2438,13 +2439,13 @@
     </row>
     <row r="13" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -2455,31 +2456,31 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -2491,27 +2492,27 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
         <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -2522,147 +2523,147 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
         <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
         <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
         <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="28"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
         <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
         <v>34</v>
-      </c>
-      <c r="F30" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -2675,13 +2676,13 @@
     </row>
     <row r="42" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
@@ -2694,85 +2695,85 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
         <v>53</v>
-      </c>
-      <c r="F43" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" t="s">
         <v>57</v>
-      </c>
-      <c r="F46" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
         <v>59</v>
       </c>
-      <c r="F47" t="s">
+      <c r="K47" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" t="s">
         <v>62</v>
       </c>
-      <c r="F48" t="s">
+      <c r="K48" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
         <v>65</v>
       </c>
-      <c r="F49" t="s">
+      <c r="K49" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" t="s">
         <v>70</v>
       </c>
-      <c r="F51" t="s">
+      <c r="K51" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2780,7 +2781,7 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54">
@@ -2789,13 +2790,13 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K56" s="4"/>
     </row>
@@ -2804,19 +2805,19 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K60" s="4"/>
     </row>
@@ -2908,15 +2909,15 @@
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s">
         <v>81</v>
-      </c>
-      <c r="J85" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="86" spans="3:12" x14ac:dyDescent="0.25">
@@ -2924,52 +2925,52 @@
         <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I86" s="1">
         <v>400000</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D87" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D88" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J88" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D89" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J89" s="5"/>
     </row>
@@ -2982,7 +2983,7 @@
       <c r="D91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J91" s="5"/>
       <c r="L91">
@@ -2993,18 +2994,18 @@
       <c r="D92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D93" s="5"/>
       <c r="G93" s="5"/>
       <c r="J93" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="3:12" x14ac:dyDescent="0.25">
@@ -3020,7 +3021,7 @@
     <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J96" s="4"/>
       <c r="K96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.25">
@@ -3035,12 +3036,12 @@
     <row r="100" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J100" s="4"/>
       <c r="K100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3065,432 +3066,432 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3516,7 +3517,7 @@
   <sheetData>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -3530,7 +3531,7 @@
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -3544,7 +3545,7 @@
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -3570,7 +3571,7 @@
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3596,7 +3597,7 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -3610,7 +3611,7 @@
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -3625,7 +3626,7 @@
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -3639,7 +3640,7 @@
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -3653,7 +3654,7 @@
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -3667,7 +3668,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -3681,7 +3682,7 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -3695,7 +3696,7 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -3709,7 +3710,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -3723,7 +3724,7 @@
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -3749,7 +3750,7 @@
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -3763,7 +3764,7 @@
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -3789,7 +3790,7 @@
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -3839,7 +3840,7 @@
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -3854,7 +3855,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3868,7 +3869,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -3882,7 +3883,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -3896,7 +3897,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -3911,7 +3912,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -3926,7 +3927,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -3940,7 +3941,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -3954,7 +3955,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -3967,7 +3968,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -3982,7 +3983,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -3996,7 +3997,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -4010,7 +4011,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -4023,7 +4024,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -4038,7 +4039,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -4052,7 +4053,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -4066,7 +4067,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -4079,7 +4080,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -4106,7 +4107,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -4120,7 +4121,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -4134,7 +4135,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -4148,7 +4149,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -4163,7 +4164,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -4177,7 +4178,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -4190,7 +4191,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -4205,7 +4206,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -4219,7 +4220,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -4232,7 +4233,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -4246,7 +4247,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -4259,7 +4260,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -4274,7 +4275,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -4288,7 +4289,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -4302,7 +4303,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -4316,7 +4317,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -4330,7 +4331,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -4355,7 +4356,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -4370,7 +4371,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -4382,7 +4383,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -4396,7 +4397,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -4409,7 +4410,7 @@
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="9"/>
       <c r="D71" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -4435,7 +4436,7 @@
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="9"/>
       <c r="D73" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -4449,7 +4450,7 @@
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -4463,7 +4464,7 @@
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -4489,7 +4490,7 @@
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="9"/>
       <c r="D77" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -4502,7 +4503,7 @@
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -4537,7 +4538,7 @@
   <sheetData>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -4557,7 +4558,7 @@
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -4595,7 +4596,7 @@
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -4615,7 +4616,7 @@
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -4635,7 +4636,7 @@
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -4691,7 +4692,7 @@
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -4711,7 +4712,7 @@
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -4732,7 +4733,7 @@
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -4752,7 +4753,7 @@
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -4772,7 +4773,7 @@
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -4810,7 +4811,7 @@
     <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -4830,7 +4831,7 @@
     <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -4851,7 +4852,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -4871,7 +4872,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -4891,7 +4892,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -4911,7 +4912,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -4931,7 +4932,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -4951,7 +4952,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -4971,7 +4972,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -4992,7 +4993,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -5012,7 +5013,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -5032,7 +5033,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -5053,7 +5054,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -5072,7 +5073,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -5091,7 +5092,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -5110,7 +5111,7 @@
     <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -5148,7 +5149,7 @@
     <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -5168,7 +5169,7 @@
     <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -5189,7 +5190,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -5210,7 +5211,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -5230,7 +5231,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -5249,7 +5250,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -5270,7 +5271,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -5290,7 +5291,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -5310,7 +5311,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -5329,7 +5330,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -5350,7 +5351,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -5370,7 +5371,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -5390,7 +5391,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -5410,7 +5411,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -5447,7 +5448,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -5468,7 +5469,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -5488,7 +5489,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -5508,7 +5509,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -5528,7 +5529,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -5546,7 +5547,7 @@
     <row r="56" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -5584,7 +5585,7 @@
     <row r="58" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C58" s="9"/>
       <c r="D58" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -5603,7 +5604,7 @@
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -5659,7 +5660,7 @@
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C62" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -5679,7 +5680,7 @@
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -5700,7 +5701,7 @@
     <row r="64" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C64" s="9"/>
       <c r="D64" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -5720,7 +5721,7 @@
     <row r="65" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C65" s="9"/>
       <c r="D65" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -5740,7 +5741,7 @@
     <row r="66" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C66" s="9"/>
       <c r="D66" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -5761,7 +5762,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -5780,7 +5781,7 @@
     <row r="68" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -5801,7 +5802,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -5820,7 +5821,7 @@
     <row r="70" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -5839,7 +5840,7 @@
     </row>
     <row r="71" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -5931,7 +5932,7 @@
     </row>
     <row r="76" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C76" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -5951,7 +5952,7 @@
     </row>
     <row r="77" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C77" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -5972,7 +5973,7 @@
     <row r="78" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -5992,7 +5993,7 @@
     <row r="79" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -6012,7 +6013,7 @@
     <row r="80" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -6033,7 +6034,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -6052,7 +6053,7 @@
     <row r="82" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C82" s="9"/>
       <c r="D82" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -6073,7 +6074,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -6092,7 +6093,7 @@
     <row r="84" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C84" s="9"/>
       <c r="D84" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -6111,7 +6112,7 @@
     </row>
     <row r="85" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C85" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -6203,7 +6204,7 @@
     </row>
     <row r="90" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C90" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -6223,7 +6224,7 @@
     </row>
     <row r="91" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C91" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -6244,7 +6245,7 @@
     <row r="92" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C92" s="9"/>
       <c r="D92" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -6264,7 +6265,7 @@
     <row r="93" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C93" s="9"/>
       <c r="D93" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -6285,7 +6286,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -6309,7 +6310,7 @@
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -6329,7 +6330,7 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -6349,7 +6350,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -6369,7 +6370,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -6389,7 +6390,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -6409,7 +6410,7 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -6429,7 +6430,7 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -6445,7 +6446,7 @@
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -6467,7 +6468,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -6487,7 +6488,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -6507,7 +6508,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
@@ -6527,7 +6528,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -6547,7 +6548,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -6567,7 +6568,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
@@ -6587,7 +6588,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
@@ -6622,7 +6623,7 @@
     <row r="111" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
       <c r="D111" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -6643,7 +6644,7 @@
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -6662,7 +6663,7 @@
     <row r="113" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C113" s="9"/>
       <c r="D113" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -6681,7 +6682,7 @@
     </row>
     <row r="114" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C114" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -6719,7 +6720,7 @@
     </row>
     <row r="116" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C116" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -6739,7 +6740,7 @@
     </row>
     <row r="117" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C117" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -6760,7 +6761,7 @@
     <row r="118" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
       <c r="D118" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -6780,7 +6781,7 @@
     <row r="119" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
       <c r="D119" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -6800,7 +6801,7 @@
     <row r="120" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
       <c r="D120" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
@@ -6821,7 +6822,7 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -6840,7 +6841,7 @@
     <row r="122" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
       <c r="D122" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -6861,7 +6862,7 @@
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
@@ -6880,7 +6881,7 @@
     <row r="124" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
       <c r="D124" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -6899,7 +6900,7 @@
     </row>
     <row r="125" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C125" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -6937,7 +6938,7 @@
     </row>
     <row r="127" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C127" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -6957,7 +6958,7 @@
     </row>
     <row r="128" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C128" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -6978,7 +6979,7 @@
     <row r="129" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C129" s="9"/>
       <c r="D129" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -7016,7 +7017,7 @@
     <row r="131" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C131" s="9"/>
       <c r="D131" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
@@ -7036,7 +7037,7 @@
     <row r="132" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C132" s="9"/>
       <c r="D132" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -7057,7 +7058,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
@@ -7076,7 +7077,7 @@
     <row r="134" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C134" s="9"/>
       <c r="D134" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -7097,7 +7098,7 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
@@ -7116,7 +7117,7 @@
     <row r="136" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C136" s="9"/>
       <c r="D136" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -7135,7 +7136,7 @@
     </row>
     <row r="137" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C137" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -7209,7 +7210,7 @@
     </row>
     <row r="141" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C141" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -7229,7 +7230,7 @@
     </row>
     <row r="142" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C142" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -7250,7 +7251,7 @@
     <row r="143" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -7270,7 +7271,7 @@
     <row r="144" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C144" s="9"/>
       <c r="D144" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -7290,7 +7291,7 @@
     <row r="145" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C145" s="9"/>
       <c r="D145" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
@@ -7311,7 +7312,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
@@ -7330,7 +7331,7 @@
     <row r="147" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C147" s="9"/>
       <c r="D147" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -7351,7 +7352,7 @@
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
@@ -7370,7 +7371,7 @@
     <row r="149" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
@@ -7389,7 +7390,7 @@
     </row>
     <row r="150" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C150" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -7463,7 +7464,7 @@
     </row>
     <row r="154" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C154" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -7504,7 +7505,7 @@
   <sheetData>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7521,7 +7522,7 @@
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -7538,7 +7539,7 @@
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -7570,7 +7571,7 @@
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -7587,7 +7588,7 @@
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -7619,7 +7620,7 @@
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -7636,7 +7637,7 @@
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -7653,7 +7654,7 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -7715,7 +7716,7 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -7732,7 +7733,7 @@
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -7750,7 +7751,7 @@
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7767,7 +7768,7 @@
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -7785,7 +7786,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -7806,7 +7807,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -7823,7 +7824,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -7840,7 +7841,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -7857,7 +7858,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -7874,7 +7875,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -7891,7 +7892,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -7908,7 +7909,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -7925,7 +7926,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -7942,7 +7943,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -7959,7 +7960,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -7976,7 +7977,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -7993,7 +7994,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -8010,7 +8011,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -8027,7 +8028,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -8044,7 +8045,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
@@ -8061,7 +8062,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -8078,7 +8079,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -8095,7 +8096,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -8123,7 +8124,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -8141,7 +8142,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -8158,7 +8159,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -8175,7 +8176,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -8192,7 +8193,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -8209,7 +8210,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -8226,7 +8227,7 @@
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -8243,7 +8244,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -8260,7 +8261,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -8277,7 +8278,7 @@
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -8294,7 +8295,7 @@
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -8311,7 +8312,7 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -8328,7 +8329,7 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -8345,7 +8346,7 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -8362,7 +8363,7 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -8379,7 +8380,7 @@
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -8396,7 +8397,7 @@
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -8413,7 +8414,7 @@
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -8430,7 +8431,7 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -8451,7 +8452,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
@@ -8468,7 +8469,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -8481,7 +8482,7 @@
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -8496,7 +8497,7 @@
     <row r="65" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="D65" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -8514,7 +8515,7 @@
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -8530,7 +8531,7 @@
     <row r="67" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C67" s="12"/>
       <c r="D67" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -8546,7 +8547,7 @@
     </row>
     <row r="68" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C68" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -8623,7 +8624,7 @@
     </row>
     <row r="73" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C73" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -8640,7 +8641,7 @@
     </row>
     <row r="74" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C74" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -8658,7 +8659,7 @@
     <row r="75" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C75" s="12"/>
       <c r="D75" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -8675,7 +8676,7 @@
     <row r="76" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -8693,7 +8694,7 @@
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -8714,7 +8715,7 @@
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
@@ -8731,7 +8732,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
@@ -8744,7 +8745,7 @@
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
@@ -8763,7 +8764,7 @@
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -8780,7 +8781,7 @@
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -8797,7 +8798,7 @@
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -8826,7 +8827,7 @@
     <row r="85" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C85" s="12"/>
       <c r="D85" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -8844,7 +8845,7 @@
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -8860,7 +8861,7 @@
     <row r="87" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C87" s="12"/>
       <c r="D87" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -8876,7 +8877,7 @@
     </row>
     <row r="88" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C88" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -8938,7 +8939,7 @@
     </row>
     <row r="92" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C92" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -8955,7 +8956,7 @@
     </row>
     <row r="93" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C93" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
@@ -8973,7 +8974,7 @@
     <row r="94" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C94" s="12"/>
       <c r="D94" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -8990,7 +8991,7 @@
     <row r="95" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C95" s="12"/>
       <c r="D95" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -9008,7 +9009,7 @@
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
@@ -9029,7 +9030,7 @@
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
@@ -9046,7 +9047,7 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
@@ -9063,7 +9064,7 @@
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
@@ -9080,7 +9081,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
@@ -9097,7 +9098,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
@@ -9114,7 +9115,7 @@
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
@@ -9131,7 +9132,7 @@
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
@@ -9148,7 +9149,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
@@ -9165,7 +9166,7 @@
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
@@ -9182,7 +9183,7 @@
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
@@ -9199,7 +9200,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
@@ -9216,7 +9217,7 @@
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
@@ -9233,7 +9234,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
@@ -9250,7 +9251,7 @@
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
@@ -9267,7 +9268,7 @@
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
@@ -9284,7 +9285,7 @@
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
@@ -9301,7 +9302,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
@@ -9318,7 +9319,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
@@ -9335,7 +9336,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
@@ -9352,7 +9353,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
@@ -9369,7 +9370,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
@@ -9386,7 +9387,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
@@ -9403,7 +9404,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
@@ -9420,7 +9421,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
@@ -9437,7 +9438,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
@@ -9454,7 +9455,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
@@ -9471,7 +9472,7 @@
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
@@ -9488,7 +9489,7 @@
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
@@ -9505,7 +9506,7 @@
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
@@ -9522,7 +9523,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
@@ -9539,7 +9540,7 @@
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
@@ -9552,7 +9553,7 @@
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -9571,7 +9572,7 @@
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -9588,7 +9589,7 @@
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
@@ -9605,7 +9606,7 @@
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
@@ -9622,7 +9623,7 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -9639,7 +9640,7 @@
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
@@ -9656,7 +9657,7 @@
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -9673,7 +9674,7 @@
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
@@ -9690,7 +9691,7 @@
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -9707,7 +9708,7 @@
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -9724,7 +9725,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -9741,7 +9742,7 @@
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -9758,7 +9759,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -9775,7 +9776,7 @@
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -9792,7 +9793,7 @@
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
@@ -9809,7 +9810,7 @@
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
@@ -9826,7 +9827,7 @@
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
@@ -9843,7 +9844,7 @@
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
@@ -9860,7 +9861,7 @@
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -9877,7 +9878,7 @@
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -9894,7 +9895,7 @@
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -9911,7 +9912,7 @@
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -9928,7 +9929,7 @@
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
@@ -9945,7 +9946,7 @@
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
@@ -9962,7 +9963,7 @@
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
@@ -9979,7 +9980,7 @@
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
@@ -9996,7 +9997,7 @@
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
@@ -10013,7 +10014,7 @@
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
@@ -10030,7 +10031,7 @@
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
@@ -10047,7 +10048,7 @@
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
@@ -10064,7 +10065,7 @@
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
@@ -10081,7 +10082,7 @@
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
@@ -10095,7 +10096,7 @@
     <row r="160" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C160" s="12"/>
       <c r="D160" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -10113,7 +10114,7 @@
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
@@ -10129,7 +10130,7 @@
     <row r="162" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C162" s="12"/>
       <c r="D162" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
@@ -10145,7 +10146,7 @@
     </row>
     <row r="163" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C163" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
@@ -10207,7 +10208,7 @@
     </row>
     <row r="167" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C167" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
@@ -10224,7 +10225,7 @@
     </row>
     <row r="168" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C168" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
@@ -10257,7 +10258,7 @@
     <row r="170" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C170" s="12"/>
       <c r="D170" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
@@ -10274,7 +10275,7 @@
     <row r="171" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C171" s="12"/>
       <c r="D171" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
@@ -10292,7 +10293,7 @@
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
@@ -10313,7 +10314,7 @@
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
       <c r="I173" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J173" s="12"/>
       <c r="K173" s="12"/>
@@ -10330,7 +10331,7 @@
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J174" s="12"/>
       <c r="K174" s="12"/>
@@ -10347,7 +10348,7 @@
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
@@ -10364,7 +10365,7 @@
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J176" s="12"/>
       <c r="K176" s="12"/>
@@ -10381,7 +10382,7 @@
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J177" s="12"/>
       <c r="K177" s="12"/>
@@ -10398,7 +10399,7 @@
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J178" s="12"/>
       <c r="K178" s="12"/>
@@ -10415,7 +10416,7 @@
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J179" s="12"/>
       <c r="K179" s="12"/>
@@ -10432,7 +10433,7 @@
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J180" s="12"/>
       <c r="K180" s="12"/>
@@ -10449,13 +10450,13 @@
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
       <c r="I181" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J181" s="13"/>
       <c r="K181" s="13"/>
       <c r="L181" s="13"/>
       <c r="M181" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
@@ -10470,7 +10471,7 @@
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
       <c r="I182" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J182" s="12"/>
       <c r="K182" s="12"/>
@@ -10487,7 +10488,7 @@
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J183" s="12"/>
       <c r="K183" s="12"/>
@@ -10504,7 +10505,7 @@
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J184" s="12"/>
       <c r="K184" s="12"/>
@@ -10521,7 +10522,7 @@
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
       <c r="I185" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J185" s="12"/>
       <c r="K185" s="12"/>
@@ -10538,7 +10539,7 @@
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J186" s="12"/>
       <c r="K186" s="12"/>
@@ -10555,7 +10556,7 @@
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
       <c r="I187" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J187" s="12"/>
       <c r="K187" s="12"/>
@@ -10572,7 +10573,7 @@
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J188" s="12"/>
       <c r="K188" s="12"/>
@@ -10589,7 +10590,7 @@
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
       <c r="I189" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J189" s="12"/>
       <c r="K189" s="12"/>
@@ -10606,7 +10607,7 @@
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
       <c r="I190" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J190" s="12"/>
       <c r="K190" s="12"/>
@@ -10623,7 +10624,7 @@
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
       <c r="I191" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J191" s="12"/>
       <c r="K191" s="12"/>
@@ -10640,7 +10641,7 @@
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
       <c r="I192" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J192" s="12"/>
       <c r="K192" s="12"/>
@@ -10657,7 +10658,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="12"/>
@@ -10674,7 +10675,7 @@
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J194" s="12"/>
       <c r="K194" s="12"/>
@@ -10691,7 +10692,7 @@
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J195" s="12"/>
       <c r="K195" s="12"/>
@@ -10708,7 +10709,7 @@
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
       <c r="I196" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="12"/>
@@ -10725,7 +10726,7 @@
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
       <c r="I197" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J197" s="12"/>
       <c r="K197" s="12"/>
@@ -10742,7 +10743,7 @@
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
       <c r="I198" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J198" s="12"/>
       <c r="K198" s="12"/>
@@ -10759,7 +10760,7 @@
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
       <c r="I199" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J199" s="12"/>
       <c r="K199" s="12"/>
@@ -10776,7 +10777,7 @@
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
       <c r="I200" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J200" s="12"/>
       <c r="K200" s="12"/>
@@ -10793,7 +10794,7 @@
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
       <c r="I201" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J201" s="12"/>
       <c r="K201" s="12"/>
@@ -10810,7 +10811,7 @@
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J202" s="12"/>
       <c r="K202" s="12"/>
@@ -10823,7 +10824,7 @@
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
       <c r="E203" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -10842,7 +10843,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
@@ -10859,7 +10860,7 @@
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
@@ -10876,7 +10877,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
@@ -10893,7 +10894,7 @@
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
@@ -10910,7 +10911,7 @@
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
       <c r="G208" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
@@ -10927,7 +10928,7 @@
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
       <c r="G209" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
@@ -10944,7 +10945,7 @@
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
       <c r="G210" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
@@ -10961,7 +10962,7 @@
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
       <c r="G211" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
@@ -10978,7 +10979,7 @@
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
       <c r="G212" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
@@ -10995,7 +10996,7 @@
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
       <c r="G213" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
@@ -11012,7 +11013,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
       <c r="G214" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
@@ -11029,7 +11030,7 @@
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
       <c r="G215" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
@@ -11046,7 +11047,7 @@
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
@@ -11063,7 +11064,7 @@
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
       <c r="G217" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
@@ -11080,7 +11081,7 @@
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
       <c r="G218" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
@@ -11097,7 +11098,7 @@
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
       <c r="G219" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H219" s="12"/>
       <c r="I219" s="12"/>
@@ -11114,7 +11115,7 @@
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
@@ -11131,7 +11132,7 @@
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
       <c r="G221" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H221" s="12"/>
       <c r="I221" s="12"/>
@@ -11148,7 +11149,7 @@
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
       <c r="G222" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H222" s="12"/>
       <c r="I222" s="12"/>
@@ -11165,7 +11166,7 @@
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
       <c r="G223" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H223" s="12"/>
       <c r="I223" s="12"/>
@@ -11182,7 +11183,7 @@
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
       <c r="G224" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H224" s="12"/>
       <c r="I224" s="12"/>
@@ -11199,7 +11200,7 @@
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
       <c r="G225" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H225" s="12"/>
       <c r="I225" s="12"/>
@@ -11216,7 +11217,7 @@
       <c r="E226" s="12"/>
       <c r="F226" s="12"/>
       <c r="G226" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H226" s="12"/>
       <c r="I226" s="12"/>
@@ -11233,7 +11234,7 @@
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
       <c r="G227" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H227" s="12"/>
       <c r="I227" s="12"/>
@@ -11250,7 +11251,7 @@
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
       <c r="G228" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H228" s="12"/>
       <c r="I228" s="12"/>
@@ -11267,7 +11268,7 @@
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
       <c r="G229" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H229" s="12"/>
       <c r="I229" s="12"/>
@@ -11284,7 +11285,7 @@
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
       <c r="G230" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H230" s="12"/>
       <c r="I230" s="12"/>
@@ -11301,7 +11302,7 @@
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
       <c r="G231" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
@@ -11318,7 +11319,7 @@
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
       <c r="G232" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
@@ -11335,7 +11336,7 @@
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
       <c r="G233" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
@@ -11349,7 +11350,7 @@
     <row r="234" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C234" s="12"/>
       <c r="D234" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
@@ -11367,7 +11368,7 @@
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
@@ -11383,7 +11384,7 @@
     <row r="236" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C236" s="12"/>
       <c r="D236" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
@@ -11399,7 +11400,7 @@
     </row>
     <row r="237" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C237" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
@@ -11446,7 +11447,7 @@
     </row>
     <row r="240" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C240" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
@@ -11484,7 +11485,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -11498,7 +11499,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -11512,7 +11513,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -11526,7 +11527,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -11552,7 +11553,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -11566,7 +11567,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -11592,7 +11593,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -11606,7 +11607,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -11632,7 +11633,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -11646,10 +11647,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="9"/>
@@ -11662,7 +11663,7 @@
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -11676,7 +11677,7 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -11714,7 +11715,7 @@
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -11728,7 +11729,7 @@
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -11742,7 +11743,7 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -11756,7 +11757,7 @@
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -11770,7 +11771,7 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -11784,7 +11785,7 @@
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -11822,7 +11823,7 @@
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -11836,22 +11837,22 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/03 PE/002 PE头关键字段 PE头解释器.xlsx
+++ b/03 PE/002 PE头关键字段 PE头解释器.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8F43A-7BEB-40F8-8287-3BB5FFDDAE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB87EE3-1BD9-4E5E-A686-F215A613FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2052" windowWidth="13116" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
